--- a/dannye.xlsx
+++ b/dannye.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\My Computer\Documents\Neiroexpert\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DC75546-3F9E-4899-AF2E-4791402F319C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{675F3F73-304A-478A-929C-DBAAB4AE7449}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="line" sheetId="3" r:id="rId1"/>
     <sheet name="trains" sheetId="2" r:id="rId2"/>
     <sheet name="pod_sos" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -516,7 +516,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="I14" sqref="D14:I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -936,8 +936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35DF5BE7-96AA-4CF8-9F46-4BB5A77CFA55}">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="G15:H15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -994,31 +994,31 @@
         <v>5000</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0.15</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -1029,31 +1029,31 @@
         <v>5000</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0.15</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -1064,31 +1064,31 @@
         <v>5000</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0.15</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -1099,31 +1099,31 @@
         <v>5000</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -1134,31 +1134,31 @@
         <v>5000</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -1169,31 +1169,31 @@
         <v>5000</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -1204,31 +1204,31 @@
         <v>5000</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -1239,31 +1239,31 @@
         <v>5000</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0.15</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1275,8 +1275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1353,10 +1353,10 @@
         <v>12</v>
       </c>
       <c r="C2">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="D2">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>0.2</v>
@@ -1368,13 +1368,13 @@
         <v>0.2</v>
       </c>
       <c r="H2">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="I2">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="J2">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -1409,10 +1409,10 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="D3">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="E3">
         <v>0.2</v>
@@ -1427,10 +1427,10 @@
         <v>0.2</v>
       </c>
       <c r="I3">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="J3">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -1474,19 +1474,19 @@
         <v>0.2</v>
       </c>
       <c r="F4">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="G4">
         <v>0.2</v>
       </c>
       <c r="H4">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -1521,7 +1521,7 @@
         <v>27</v>
       </c>
       <c r="C5">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="D5">
         <v>0.2</v>
@@ -1530,19 +1530,19 @@
         <v>0.2</v>
       </c>
       <c r="F5">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="H5">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -1577,7 +1577,7 @@
         <v>27</v>
       </c>
       <c r="C6">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>0.2</v>
@@ -1586,19 +1586,19 @@
         <v>0.2</v>
       </c>
       <c r="F6">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="H6">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>1</v>

--- a/dannye.xlsx
+++ b/dannye.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\My Computer\Documents\Neiroexpert\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{675F3F73-304A-478A-929C-DBAAB4AE7449}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF42AC61-938D-4598-885F-8E3568A11D21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="line" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="52">
   <si>
     <t>vag_type</t>
   </si>
@@ -90,9 +90,6 @@
     <t>vsp_type</t>
   </si>
   <si>
-    <t>vsp_cstr</t>
-  </si>
-  <si>
     <t>vsp_cnd</t>
   </si>
   <si>
@@ -111,7 +108,76 @@
     <t>Shkol_mm</t>
   </si>
   <si>
-    <t>f_tr</t>
+    <t>rail</t>
+  </si>
+  <si>
+    <t>fasten</t>
+  </si>
+  <si>
+    <t>kb</t>
+  </si>
+  <si>
+    <t>gbr_bp</t>
+  </si>
+  <si>
+    <t>gbr_pod</t>
+  </si>
+  <si>
+    <t>ars</t>
+  </si>
+  <si>
+    <t>pandr</t>
+  </si>
+  <si>
+    <t>whslo</t>
+  </si>
+  <si>
+    <t>do</t>
+  </si>
+  <si>
+    <t>kd</t>
+  </si>
+  <si>
+    <t>P65</t>
+  </si>
+  <si>
+    <t>P75</t>
+  </si>
+  <si>
+    <t>tie</t>
+  </si>
+  <si>
+    <t>beton</t>
+  </si>
+  <si>
+    <t>der</t>
+  </si>
+  <si>
+    <t>hball_sm</t>
+  </si>
+  <si>
+    <t>direct</t>
+  </si>
+  <si>
+    <t>strgh</t>
+  </si>
+  <si>
+    <t>lft</t>
+  </si>
+  <si>
+    <t>rgt</t>
+  </si>
+  <si>
+    <t>km</t>
+  </si>
+  <si>
+    <t>pk</t>
+  </si>
+  <si>
+    <t>way</t>
+  </si>
+  <si>
+    <t>wear_mm</t>
   </si>
 </sst>
 </file>
@@ -170,10 +236,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -513,418 +585,1066 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03B60433-AA79-4942-8211-43192B4F2CAE}">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="D14:I14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="15" max="15" width="11.88671875" customWidth="1"/>
+    <col min="16" max="16" width="11.109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="L1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="3">
+        <v>1</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="3">
+        <v>20</v>
+      </c>
+      <c r="K2" s="3">
         <v>10000</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
+      <c r="L2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="M2" s="3">
+        <v>0</v>
+      </c>
+      <c r="N2" s="3">
         <v>5</v>
       </c>
-      <c r="G2">
-        <v>1000</v>
-      </c>
-      <c r="H2">
+      <c r="O2" s="3">
+        <v>50</v>
+      </c>
+      <c r="P2" s="3">
         <v>1520</v>
       </c>
-      <c r="I2">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="3">
+        <v>1</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="3">
+        <v>30</v>
+      </c>
+      <c r="K3" s="3">
         <v>10000</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
+      <c r="L3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="M3" s="3">
+        <v>0</v>
+      </c>
+      <c r="N3" s="3">
+        <v>0</v>
+      </c>
+      <c r="O3" s="3">
+        <v>50</v>
+      </c>
+      <c r="P3" s="3">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="3">
+        <v>40</v>
+      </c>
+      <c r="K4" s="3">
+        <v>5000</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="M4" s="3">
+        <v>10</v>
+      </c>
+      <c r="N4" s="3">
+        <v>-5</v>
+      </c>
+      <c r="O4" s="3">
+        <v>50</v>
+      </c>
+      <c r="P4" s="3">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="3">
+        <v>2</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="3">
+        <v>25</v>
+      </c>
+      <c r="K5" s="3">
+        <v>10000</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="M5" s="3">
+        <v>0</v>
+      </c>
+      <c r="N5" s="3">
+        <v>0</v>
+      </c>
+      <c r="O5" s="3">
+        <v>50</v>
+      </c>
+      <c r="P5" s="3">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3">
+        <v>3</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="3">
+        <v>1</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="3">
+        <v>45</v>
+      </c>
+      <c r="K6" s="3">
+        <v>10000</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="M6" s="3">
+        <v>0</v>
+      </c>
+      <c r="N6" s="3">
+        <v>0</v>
+      </c>
+      <c r="O6" s="3">
+        <v>50</v>
+      </c>
+      <c r="P6" s="3">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>1</v>
+      </c>
+      <c r="B7" s="3">
+        <v>3</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="3">
+        <v>2</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" s="3">
+        <v>20</v>
+      </c>
+      <c r="K7" s="3">
         <v>2500</v>
       </c>
-      <c r="H3">
-        <v>1525</v>
-      </c>
-      <c r="I3">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
+      <c r="L7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M7" s="3">
+        <v>15</v>
+      </c>
+      <c r="N7" s="3">
+        <v>4</v>
+      </c>
+      <c r="O7" s="3">
+        <v>50</v>
+      </c>
+      <c r="P7" s="3">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>1</v>
+      </c>
+      <c r="B8" s="3">
+        <v>4</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3">
+        <v>2</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="3">
+        <v>3</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J8" s="3">
+        <v>30</v>
+      </c>
+      <c r="K8" s="3">
+        <v>10000</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
+        <v>50</v>
+      </c>
+      <c r="P8" s="3">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>1</v>
+      </c>
+      <c r="B9" s="3">
+        <v>4</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3">
+        <v>2</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="3">
+        <v>5</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J9" s="3">
+        <v>40</v>
+      </c>
+      <c r="K9" s="3">
+        <v>10000</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3">
+        <v>1</v>
+      </c>
+      <c r="O9" s="3">
+        <v>50</v>
+      </c>
+      <c r="P9" s="3">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3">
+        <v>5</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3">
+        <v>2</v>
+      </c>
+      <c r="E10" s="3">
+        <v>2</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="3">
+        <v>9</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" s="3">
+        <v>25</v>
+      </c>
+      <c r="K10" s="3">
+        <v>350</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="M10" s="3">
+        <v>100</v>
+      </c>
+      <c r="N10" s="3">
+        <v>0</v>
+      </c>
+      <c r="O10" s="3">
+        <v>50</v>
+      </c>
+      <c r="P10" s="3">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>1</v>
+      </c>
+      <c r="B11" s="3">
+        <v>5</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="3">
+        <v>5</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J11" s="3">
+        <v>45</v>
+      </c>
+      <c r="K11" s="3">
+        <v>10000</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="M11" s="3">
+        <v>0</v>
+      </c>
+      <c r="N11" s="3">
+        <v>0</v>
+      </c>
+      <c r="O11" s="3">
+        <v>50</v>
+      </c>
+      <c r="P11" s="3">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>1</v>
+      </c>
+      <c r="B12" s="3">
+        <v>6</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="3">
+        <v>4</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J12" s="3">
+        <v>40</v>
+      </c>
+      <c r="K12" s="3">
+        <v>10000</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="M12" s="3">
+        <v>0</v>
+      </c>
+      <c r="N12" s="3">
+        <v>-15</v>
+      </c>
+      <c r="O12" s="3">
+        <v>50</v>
+      </c>
+      <c r="P12" s="3">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>1</v>
+      </c>
+      <c r="B13" s="3">
+        <v>6</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="3">
+        <v>6</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J13" s="3">
+        <v>25</v>
+      </c>
+      <c r="K13" s="3">
+        <v>1500</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M13" s="3">
+        <v>40</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>50</v>
+      </c>
+      <c r="P13" s="3">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>1</v>
+      </c>
+      <c r="B14" s="3">
+        <v>7</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="3">
+        <v>7</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J14" s="3">
+        <v>45</v>
+      </c>
+      <c r="K14" s="3">
+        <v>10000</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>20</v>
+      </c>
+      <c r="O14" s="3">
+        <v>50</v>
+      </c>
+      <c r="P14" s="3">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>1</v>
+      </c>
+      <c r="B15" s="3">
+        <v>7</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1</v>
+      </c>
+      <c r="D15" s="3">
+        <v>1</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="3">
+        <v>4</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J15" s="3">
+        <v>40</v>
+      </c>
+      <c r="K15" s="3">
         <v>5000</v>
       </c>
-      <c r="E4">
+      <c r="L15" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="M15" s="3">
         <v>10</v>
       </c>
-      <c r="F4">
+      <c r="N15" s="3">
         <v>-5</v>
       </c>
-      <c r="G4">
-        <v>1000</v>
-      </c>
-      <c r="H4">
+      <c r="O15" s="3">
+        <v>50</v>
+      </c>
+      <c r="P15" s="3">
         <v>1515</v>
       </c>
-      <c r="I4">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>1</v>
+      </c>
+      <c r="B16" s="3">
+        <v>8</v>
+      </c>
+      <c r="C16" s="3">
+        <v>1</v>
+      </c>
+      <c r="D16" s="3">
+        <v>1</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" s="3">
+        <v>2</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J16" s="3">
+        <v>25</v>
+      </c>
+      <c r="K16" s="3">
         <v>10000</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>1000</v>
-      </c>
-      <c r="H5">
+      <c r="L16" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="M16" s="3">
+        <v>0</v>
+      </c>
+      <c r="N16" s="3">
+        <v>0</v>
+      </c>
+      <c r="O16" s="3">
+        <v>50</v>
+      </c>
+      <c r="P16" s="3">
         <v>1530</v>
       </c>
-      <c r="I5">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
+        <v>1</v>
+      </c>
+      <c r="B17" s="3">
+        <v>8</v>
+      </c>
+      <c r="C17" s="3">
+        <v>1</v>
+      </c>
+      <c r="D17" s="3">
+        <v>1</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="3">
+        <v>3</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J17" s="3">
+        <v>45</v>
+      </c>
+      <c r="K17" s="3">
         <v>10000</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>1000</v>
-      </c>
-      <c r="H6">
+      <c r="L17" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="M17" s="3">
+        <v>0</v>
+      </c>
+      <c r="N17" s="3">
+        <v>0</v>
+      </c>
+      <c r="O17" s="3">
+        <v>50</v>
+      </c>
+      <c r="P17" s="3">
         <v>1520</v>
       </c>
-      <c r="I6">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>3</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>2500</v>
-      </c>
-      <c r="E7">
-        <v>15</v>
-      </c>
-      <c r="F7">
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <v>1</v>
+      </c>
+      <c r="B18" s="3">
+        <v>9</v>
+      </c>
+      <c r="C18" s="3">
+        <v>1</v>
+      </c>
+      <c r="D18" s="3">
+        <v>2</v>
+      </c>
+      <c r="E18" s="3">
+        <v>2</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" s="3">
         <v>4</v>
       </c>
-      <c r="G7">
-        <v>500</v>
-      </c>
-      <c r="H7">
+      <c r="H18" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J18" s="3">
+        <v>30</v>
+      </c>
+      <c r="K18" s="3">
+        <v>10000</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
+        <v>50</v>
+      </c>
+      <c r="P18" s="3">
         <v>1520</v>
       </c>
-      <c r="I7">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>1</v>
+      </c>
+      <c r="B19" s="3">
+        <v>9</v>
+      </c>
+      <c r="C19" s="3">
+        <v>1</v>
+      </c>
+      <c r="D19" s="3">
+        <v>2</v>
+      </c>
+      <c r="E19" s="3">
+        <v>2</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G19" s="3">
+        <v>1</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J19" s="3">
+        <v>40</v>
+      </c>
+      <c r="K19" s="3">
         <v>10000</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>1000</v>
-      </c>
-      <c r="H8">
+      <c r="L19" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="M19" s="3">
+        <v>0</v>
+      </c>
+      <c r="N19" s="3">
+        <v>1</v>
+      </c>
+      <c r="O19" s="3">
+        <v>50</v>
+      </c>
+      <c r="P19" s="3">
         <v>1520</v>
       </c>
-      <c r="I8">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
+        <v>1</v>
+      </c>
+      <c r="B20" s="3">
+        <v>10</v>
+      </c>
+      <c r="C20" s="3">
+        <v>1</v>
+      </c>
+      <c r="D20" s="3">
+        <v>2</v>
+      </c>
+      <c r="E20" s="3">
+        <v>2</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20" s="3">
+        <v>1</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J20" s="3">
+        <v>25</v>
+      </c>
+      <c r="K20" s="3">
+        <v>350</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="M20" s="3">
+        <v>100</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
+        <v>50</v>
+      </c>
+      <c r="P20" s="3">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>1</v>
+      </c>
+      <c r="B21" s="3">
+        <v>10</v>
+      </c>
+      <c r="C21" s="3">
+        <v>1</v>
+      </c>
+      <c r="D21" s="3">
+        <v>1</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21" s="3">
+        <v>2</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J21" s="3">
+        <v>45</v>
+      </c>
+      <c r="K21" s="3">
         <v>10000</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>1000</v>
-      </c>
-      <c r="H9">
+      <c r="L21" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="M21" s="3">
+        <v>0</v>
+      </c>
+      <c r="N21" s="3">
+        <v>0</v>
+      </c>
+      <c r="O21" s="3">
+        <v>50</v>
+      </c>
+      <c r="P21" s="3">
         <v>1520</v>
-      </c>
-      <c r="I9">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>5</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>350</v>
-      </c>
-      <c r="E10">
-        <v>100</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>300</v>
-      </c>
-      <c r="H10">
-        <v>1520</v>
-      </c>
-      <c r="I10">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>1</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>10000</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>1000</v>
-      </c>
-      <c r="H11">
-        <v>1520</v>
-      </c>
-      <c r="I11">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>4</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>10000</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>-15</v>
-      </c>
-      <c r="G12">
-        <v>1000</v>
-      </c>
-      <c r="H12">
-        <v>1540</v>
-      </c>
-      <c r="I12">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>1</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>1500</v>
-      </c>
-      <c r="E13">
-        <v>40</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>1000</v>
-      </c>
-      <c r="H13">
-        <v>1520</v>
-      </c>
-      <c r="I13">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>1</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>10000</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>20</v>
-      </c>
-      <c r="G14">
-        <v>1000</v>
-      </c>
-      <c r="H14">
-        <v>1520</v>
-      </c>
-      <c r="I14">
-        <v>0.25</v>
       </c>
     </row>
   </sheetData>
@@ -936,7 +1656,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35DF5BE7-96AA-4CF8-9F46-4BB5A77CFA55}">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>

--- a/dannye.xlsx
+++ b/dannye.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\My Computer\Documents\Neiroexpert\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF42AC61-938D-4598-885F-8E3568A11D21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D55E84C-3AF5-4225-A1B6-C0FD9F6C635E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="line" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="51">
   <si>
     <t>vag_type</t>
   </si>
@@ -78,12 +78,6 @@
     <t>rmskram_force</t>
   </si>
   <si>
-    <t>mpoezda_min</t>
-  </si>
-  <si>
-    <t>mpoezda_max</t>
-  </si>
-  <si>
     <t>poezd_gamma</t>
   </si>
   <si>
@@ -178,6 +172,9 @@
   </si>
   <si>
     <t>wear_mm</t>
+  </si>
+  <si>
+    <t>mpoezda_mean</t>
   </si>
 </sst>
 </file>
@@ -587,8 +584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03B60433-AA79-4942-8211-43192B4F2CAE}">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -599,52 +596,52 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="H1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="L1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
@@ -664,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G2" s="3">
         <v>1</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J2" s="3">
         <v>20</v>
@@ -682,7 +679,7 @@
         <v>10000</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M2" s="3">
         <v>0</v>
@@ -714,16 +711,16 @@
         <v>1</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G3" s="3">
         <v>1</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J3" s="3">
         <v>30</v>
@@ -732,7 +729,7 @@
         <v>10000</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M3" s="3">
         <v>0</v>
@@ -764,16 +761,16 @@
         <v>1</v>
       </c>
       <c r="F4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="3">
-        <v>1</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="I4" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J4" s="3">
         <v>40</v>
@@ -782,7 +779,7 @@
         <v>5000</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M4" s="3">
         <v>10</v>
@@ -814,16 +811,16 @@
         <v>1</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G5" s="3">
         <v>2</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J5" s="3">
         <v>25</v>
@@ -832,7 +829,7 @@
         <v>10000</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M5" s="3">
         <v>0</v>
@@ -864,16 +861,16 @@
         <v>1</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G6" s="3">
         <v>1</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J6" s="3">
         <v>45</v>
@@ -882,7 +879,7 @@
         <v>10000</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M6" s="3">
         <v>0</v>
@@ -914,16 +911,16 @@
         <v>1</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G7" s="3">
         <v>2</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J7" s="3">
         <v>20</v>
@@ -932,7 +929,7 @@
         <v>2500</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M7" s="3">
         <v>15</v>
@@ -964,16 +961,16 @@
         <v>2</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G8" s="3">
         <v>3</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J8" s="3">
         <v>30</v>
@@ -982,7 +979,7 @@
         <v>10000</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M8" s="3">
         <v>0</v>
@@ -1014,16 +1011,16 @@
         <v>2</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G9" s="3">
         <v>5</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J9" s="3">
         <v>40</v>
@@ -1032,7 +1029,7 @@
         <v>10000</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M9" s="3">
         <v>0</v>
@@ -1064,16 +1061,16 @@
         <v>2</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G10" s="3">
         <v>9</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J10" s="3">
         <v>25</v>
@@ -1082,7 +1079,7 @@
         <v>350</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M10" s="3">
         <v>100</v>
@@ -1114,16 +1111,16 @@
         <v>1</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G11" s="3">
         <v>5</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J11" s="3">
         <v>45</v>
@@ -1132,7 +1129,7 @@
         <v>10000</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M11" s="3">
         <v>0</v>
@@ -1164,16 +1161,16 @@
         <v>1</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G12" s="3">
         <v>4</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J12" s="3">
         <v>40</v>
@@ -1182,7 +1179,7 @@
         <v>10000</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M12" s="3">
         <v>0</v>
@@ -1214,16 +1211,16 @@
         <v>1</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G13" s="3">
         <v>6</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J13" s="3">
         <v>25</v>
@@ -1232,7 +1229,7 @@
         <v>1500</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M13" s="3">
         <v>40</v>
@@ -1264,16 +1261,16 @@
         <v>1</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G14" s="3">
         <v>7</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J14" s="3">
         <v>45</v>
@@ -1282,7 +1279,7 @@
         <v>10000</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1314,16 +1311,16 @@
         <v>1</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G15" s="3">
         <v>4</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J15" s="3">
         <v>40</v>
@@ -1332,7 +1329,7 @@
         <v>5000</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M15" s="3">
         <v>10</v>
@@ -1364,16 +1361,16 @@
         <v>1</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G16" s="3">
         <v>2</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J16" s="3">
         <v>25</v>
@@ -1382,7 +1379,7 @@
         <v>10000</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M16" s="3">
         <v>0</v>
@@ -1414,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G17" s="3">
         <v>3</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J17" s="3">
         <v>45</v>
@@ -1432,7 +1429,7 @@
         <v>10000</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M17" s="3">
         <v>0</v>
@@ -1464,16 +1461,16 @@
         <v>2</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G18" s="3">
         <v>4</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J18" s="3">
         <v>30</v>
@@ -1482,7 +1479,7 @@
         <v>10000</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M18" s="3">
         <v>0</v>
@@ -1514,16 +1511,16 @@
         <v>2</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G19" s="3">
         <v>1</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J19" s="3">
         <v>40</v>
@@ -1532,7 +1529,7 @@
         <v>10000</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M19" s="3">
         <v>0</v>
@@ -1564,16 +1561,16 @@
         <v>2</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G20" s="3">
         <v>1</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J20" s="3">
         <v>25</v>
@@ -1582,7 +1579,7 @@
         <v>350</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M20" s="3">
         <v>100</v>
@@ -1614,16 +1611,16 @@
         <v>1</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G21" s="3">
         <v>2</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J21" s="3">
         <v>45</v>
@@ -1632,7 +1629,7 @@
         <v>10000</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M21" s="3">
         <v>0</v>
@@ -1654,336 +1651,308 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35DF5BE7-96AA-4CF8-9F46-4BB5A77CFA55}">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.21875" customWidth="1"/>
-    <col min="2" max="2" width="15.88671875" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" customWidth="1"/>
-    <col min="5" max="5" width="12.21875" customWidth="1"/>
-    <col min="6" max="6" width="22.33203125" customWidth="1"/>
-    <col min="7" max="7" width="12.5546875" customWidth="1"/>
+    <col min="1" max="1" width="15.88671875" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
+    <col min="4" max="4" width="12.21875" customWidth="1"/>
+    <col min="5" max="5" width="22.33203125" customWidth="1"/>
+    <col min="6" max="6" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K1" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="B2">
+        <v>0.15</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2000</v>
+      </c>
+      <c r="B3">
+        <v>0.15</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3000</v>
+      </c>
+      <c r="B4">
+        <v>0.15</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4000</v>
+      </c>
+      <c r="B5">
+        <v>0.1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6">
         <v>5000</v>
       </c>
-      <c r="C2">
+      <c r="B6">
+        <v>0.1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6000</v>
+      </c>
+      <c r="B7">
+        <v>0.1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7000</v>
+      </c>
+      <c r="B8">
+        <v>0.1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8000</v>
+      </c>
+      <c r="B9">
         <v>0.15</v>
       </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="E2">
-        <v>2</v>
-      </c>
-      <c r="F2">
-        <v>2</v>
-      </c>
-      <c r="G2">
-        <v>2</v>
-      </c>
-      <c r="H2">
-        <v>2</v>
-      </c>
-      <c r="I2">
-        <v>2</v>
-      </c>
-      <c r="J2">
-        <v>2</v>
-      </c>
-      <c r="K2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>5000</v>
-      </c>
-      <c r="C3">
-        <v>0.15</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3">
-        <v>2</v>
-      </c>
-      <c r="H3">
-        <v>2</v>
-      </c>
-      <c r="I3">
-        <v>2</v>
-      </c>
-      <c r="J3">
-        <v>2</v>
-      </c>
-      <c r="K3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>5000</v>
-      </c>
-      <c r="C4">
-        <v>0.15</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="G4">
-        <v>2</v>
-      </c>
-      <c r="H4">
-        <v>2</v>
-      </c>
-      <c r="I4">
-        <v>2</v>
-      </c>
-      <c r="J4">
-        <v>2</v>
-      </c>
-      <c r="K4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>0</v>
-      </c>
-      <c r="B5">
-        <v>5000</v>
-      </c>
-      <c r="C5">
-        <v>0.1</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
-      <c r="G5">
-        <v>2</v>
-      </c>
-      <c r="H5">
-        <v>2</v>
-      </c>
-      <c r="I5">
-        <v>2</v>
-      </c>
-      <c r="J5">
-        <v>2</v>
-      </c>
-      <c r="K5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>0</v>
-      </c>
-      <c r="B6">
-        <v>5000</v>
-      </c>
-      <c r="C6">
-        <v>0.1</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6">
-        <v>2</v>
-      </c>
-      <c r="G6">
-        <v>2</v>
-      </c>
-      <c r="H6">
-        <v>2</v>
-      </c>
-      <c r="I6">
-        <v>2</v>
-      </c>
-      <c r="J6">
-        <v>2</v>
-      </c>
-      <c r="K6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>0</v>
-      </c>
-      <c r="B7">
-        <v>5000</v>
-      </c>
-      <c r="C7">
-        <v>0.1</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>2</v>
-      </c>
-      <c r="G7">
-        <v>2</v>
-      </c>
-      <c r="H7">
-        <v>2</v>
-      </c>
-      <c r="I7">
-        <v>2</v>
-      </c>
-      <c r="J7">
-        <v>2</v>
-      </c>
-      <c r="K7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>0</v>
-      </c>
-      <c r="B8">
-        <v>5000</v>
-      </c>
-      <c r="C8">
-        <v>0.1</v>
-      </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>2</v>
-      </c>
-      <c r="G8">
-        <v>2</v>
-      </c>
-      <c r="H8">
-        <v>2</v>
-      </c>
-      <c r="I8">
-        <v>2</v>
-      </c>
-      <c r="J8">
-        <v>2</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>0</v>
-      </c>
-      <c r="B9">
-        <v>5000</v>
-      </c>
       <c r="C9">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J9">
-        <v>2</v>
-      </c>
-      <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/dannye.xlsx
+++ b/dannye.xlsx
@@ -8,21 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\My Computer\Documents\Neiroexpert\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D55E84C-3AF5-4225-A1B6-C0FD9F6C635E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DFA2D11-C16D-4FDB-891E-2E7D196698DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="line" sheetId="3" r:id="rId1"/>
     <sheet name="trains" sheetId="2" r:id="rId2"/>
-    <sheet name="pod_sos" sheetId="1" r:id="rId3"/>
+    <sheet name="vsp_constr" sheetId="4" r:id="rId3"/>
+    <sheet name="pod_sos" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="72">
   <si>
     <t>vag_type</t>
   </si>
@@ -175,13 +176,76 @@
   </si>
   <si>
     <t>mpoezda_mean</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>epur</t>
+  </si>
+  <si>
+    <t>ballast</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>alfa</t>
+  </si>
+  <si>
+    <t>ksi</t>
+  </si>
+  <si>
+    <t>U_kgs</t>
+  </si>
+  <si>
+    <t>kv_sm</t>
+  </si>
+  <si>
+    <t>kg_sm</t>
+  </si>
+  <si>
+    <t>lsh_sm</t>
+  </si>
+  <si>
+    <t>W_cm3</t>
+  </si>
+  <si>
+    <t>wpod_sm2</t>
+  </si>
+  <si>
+    <t>omega_sm2</t>
+  </si>
+  <si>
+    <t>b_sm</t>
+  </si>
+  <si>
+    <t>P50</t>
+  </si>
+  <si>
+    <t>sheb</t>
+  </si>
+  <si>
+    <t>grav</t>
+  </si>
+  <si>
+    <t>pesok</t>
+  </si>
+  <si>
+    <t>proklad</t>
+  </si>
+  <si>
+    <t>tipov</t>
+  </si>
+  <si>
+    <t>uprug</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,6 +257,19 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -233,7 +310,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -244,6 +321,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -585,7 +669,7 @@
   <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+      <selection activeCell="H2" sqref="H2:I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1653,7 +1737,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35DF5BE7-96AA-4CF8-9F46-4BB5A77CFA55}">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -1961,6 +2045,2089 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{202BBD52-9E91-42CA-A546-3F38FD89AB80}">
+  <dimension ref="A1:R36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R9" sqref="R9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.5546875" style="6" customWidth="1"/>
+    <col min="2" max="3" width="12.6640625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" style="6" customWidth="1"/>
+    <col min="5" max="6" width="10.33203125" style="6" customWidth="1"/>
+    <col min="7" max="8" width="9" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.44140625" style="6" customWidth="1"/>
+    <col min="12" max="12" width="10.33203125" style="6" customWidth="1"/>
+    <col min="13" max="13" width="10.21875" style="6" customWidth="1"/>
+    <col min="14" max="14" width="10.33203125" style="6" customWidth="1"/>
+    <col min="15" max="15" width="12.21875" style="6" customWidth="1"/>
+    <col min="16" max="18" width="9" style="6" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1840</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G2" s="4">
+        <v>1500</v>
+      </c>
+      <c r="H2" s="4">
+        <v>1.438E-2</v>
+      </c>
+      <c r="I2" s="4">
+        <f>1.5*H2</f>
+        <v>2.1569999999999999E-2</v>
+      </c>
+      <c r="J2" s="4">
+        <v>55</v>
+      </c>
+      <c r="K2" s="4">
+        <v>0.246</v>
+      </c>
+      <c r="L2" s="4">
+        <v>492</v>
+      </c>
+      <c r="M2" s="4">
+        <v>0.40300000000000002</v>
+      </c>
+      <c r="N2" s="4">
+        <v>518</v>
+      </c>
+      <c r="O2" s="4">
+        <v>3092</v>
+      </c>
+      <c r="P2" s="4">
+        <v>27.6</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="R2" s="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="4">
+        <v>2000</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G3" s="4">
+        <v>1670</v>
+      </c>
+      <c r="H3" s="4">
+        <v>1.477E-2</v>
+      </c>
+      <c r="I3" s="4">
+        <f t="shared" ref="I3:I36" si="0">1.5*H3</f>
+        <v>2.2155000000000001E-2</v>
+      </c>
+      <c r="J3" s="4">
+        <v>51</v>
+      </c>
+      <c r="K3" s="4">
+        <v>0.246</v>
+      </c>
+      <c r="L3" s="4">
+        <v>492</v>
+      </c>
+      <c r="M3" s="4">
+        <v>0.40300000000000002</v>
+      </c>
+      <c r="N3" s="4">
+        <v>518</v>
+      </c>
+      <c r="O3" s="4">
+        <v>3092</v>
+      </c>
+      <c r="P3" s="4">
+        <v>27.6</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="R3" s="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1840</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G4" s="4">
+        <v>1000</v>
+      </c>
+      <c r="H4" s="4">
+        <v>1.338E-2</v>
+      </c>
+      <c r="I4" s="4">
+        <f t="shared" si="0"/>
+        <v>2.0069999999999998E-2</v>
+      </c>
+      <c r="J4" s="4">
+        <v>55</v>
+      </c>
+      <c r="K4" s="4">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="L4" s="4">
+        <v>417</v>
+      </c>
+      <c r="M4" s="4">
+        <v>0.40300000000000002</v>
+      </c>
+      <c r="N4" s="4">
+        <v>518</v>
+      </c>
+      <c r="O4" s="4">
+        <v>3092</v>
+      </c>
+      <c r="P4" s="4">
+        <v>27.6</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="R4" s="4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1840</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" s="4">
+        <v>1450</v>
+      </c>
+      <c r="H5" s="4">
+        <v>1.486E-2</v>
+      </c>
+      <c r="I5" s="4">
+        <f t="shared" si="0"/>
+        <v>2.2290000000000001E-2</v>
+      </c>
+      <c r="J5" s="4">
+        <v>55</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="L5" s="4">
+        <v>417</v>
+      </c>
+      <c r="M5" s="4">
+        <v>0.40300000000000002</v>
+      </c>
+      <c r="N5" s="4">
+        <v>518</v>
+      </c>
+      <c r="O5" s="4">
+        <v>3092</v>
+      </c>
+      <c r="P5" s="4">
+        <v>27.6</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="R5" s="4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="4">
+        <v>1840</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" s="4">
+        <v>940</v>
+      </c>
+      <c r="H6" s="4">
+        <v>1.3339999999999999E-2</v>
+      </c>
+      <c r="I6" s="4">
+        <f t="shared" si="0"/>
+        <v>2.001E-2</v>
+      </c>
+      <c r="J6" s="4">
+        <v>55</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="L6" s="4">
+        <v>417</v>
+      </c>
+      <c r="M6" s="4">
+        <v>0.40300000000000002</v>
+      </c>
+      <c r="N6" s="4">
+        <v>518</v>
+      </c>
+      <c r="O6" s="4">
+        <v>3092</v>
+      </c>
+      <c r="P6" s="4">
+        <v>27.6</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="R6" s="4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="4">
+        <v>1840</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G7" s="4">
+        <v>1020</v>
+      </c>
+      <c r="H7" s="4">
+        <v>1.359E-2</v>
+      </c>
+      <c r="I7" s="4">
+        <f t="shared" si="0"/>
+        <v>2.0385E-2</v>
+      </c>
+      <c r="J7" s="4">
+        <v>55</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="L7" s="4">
+        <v>417</v>
+      </c>
+      <c r="M7" s="4">
+        <v>0.40300000000000002</v>
+      </c>
+      <c r="N7" s="4">
+        <v>518</v>
+      </c>
+      <c r="O7" s="4">
+        <v>3092</v>
+      </c>
+      <c r="P7" s="4">
+        <v>27.6</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="R7" s="4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="4">
+        <v>2000</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8" s="4">
+        <v>1100</v>
+      </c>
+      <c r="H8" s="4">
+        <v>1.421E-2</v>
+      </c>
+      <c r="I8" s="4">
+        <f t="shared" si="0"/>
+        <v>2.1315000000000001E-2</v>
+      </c>
+      <c r="J8" s="4">
+        <v>51</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="L8" s="4">
+        <v>417</v>
+      </c>
+      <c r="M8" s="4">
+        <v>0.40300000000000002</v>
+      </c>
+      <c r="N8" s="4">
+        <v>518</v>
+      </c>
+      <c r="O8" s="4">
+        <v>3092</v>
+      </c>
+      <c r="P8" s="4">
+        <v>27.6</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="R8" s="4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="4">
+        <v>2000</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1550</v>
+      </c>
+      <c r="H9" s="4">
+        <v>1.511E-2</v>
+      </c>
+      <c r="I9" s="4">
+        <f t="shared" si="0"/>
+        <v>2.2665000000000001E-2</v>
+      </c>
+      <c r="J9" s="4">
+        <v>51</v>
+      </c>
+      <c r="K9" s="4">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="L9" s="4">
+        <v>417</v>
+      </c>
+      <c r="M9" s="4">
+        <v>0.40300000000000002</v>
+      </c>
+      <c r="N9" s="4">
+        <v>518</v>
+      </c>
+      <c r="O9" s="4">
+        <v>3092</v>
+      </c>
+      <c r="P9" s="4">
+        <v>27.6</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="R9" s="4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="4">
+        <v>2000</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G10" s="4">
+        <v>1000</v>
+      </c>
+      <c r="H10" s="4">
+        <v>1.354E-2</v>
+      </c>
+      <c r="I10" s="4">
+        <f t="shared" si="0"/>
+        <v>2.0310000000000002E-2</v>
+      </c>
+      <c r="J10" s="4">
+        <v>51</v>
+      </c>
+      <c r="K10" s="4">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="L10" s="4">
+        <v>417</v>
+      </c>
+      <c r="M10" s="4">
+        <v>0.40300000000000002</v>
+      </c>
+      <c r="N10" s="4">
+        <v>518</v>
+      </c>
+      <c r="O10" s="4">
+        <v>3092</v>
+      </c>
+      <c r="P10" s="4">
+        <v>27.6</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="R10" s="4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="4">
+        <v>2000</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" s="4">
+        <v>1100</v>
+      </c>
+      <c r="H11" s="4">
+        <v>1.387E-2</v>
+      </c>
+      <c r="I11" s="4">
+        <f t="shared" si="0"/>
+        <v>2.0805000000000001E-2</v>
+      </c>
+      <c r="J11" s="4">
+        <v>51</v>
+      </c>
+      <c r="K11" s="4">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="L11" s="4">
+        <v>417</v>
+      </c>
+      <c r="M11" s="4">
+        <v>0.40300000000000002</v>
+      </c>
+      <c r="N11" s="4">
+        <v>518</v>
+      </c>
+      <c r="O11" s="4">
+        <v>3092</v>
+      </c>
+      <c r="P11" s="4">
+        <v>27.6</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="R11" s="4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" s="4">
+        <v>1840</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G12" s="4">
+        <v>1500</v>
+      </c>
+      <c r="H12" s="4">
+        <v>1.772E-2</v>
+      </c>
+      <c r="I12" s="4">
+        <f t="shared" si="0"/>
+        <v>2.6579999999999999E-2</v>
+      </c>
+      <c r="J12" s="4">
+        <v>55</v>
+      </c>
+      <c r="K12" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="L12" s="4">
+        <v>273</v>
+      </c>
+      <c r="M12" s="4">
+        <v>0.40300000000000002</v>
+      </c>
+      <c r="N12" s="4">
+        <v>518</v>
+      </c>
+      <c r="O12" s="4">
+        <v>3092</v>
+      </c>
+      <c r="P12" s="4">
+        <v>27.6</v>
+      </c>
+      <c r="Q12" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="R12" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="4">
+        <v>2000</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G13" s="4">
+        <v>1670</v>
+      </c>
+      <c r="H13" s="4">
+        <v>1.8200000000000001E-2</v>
+      </c>
+      <c r="I13" s="4">
+        <f t="shared" si="0"/>
+        <v>2.7300000000000001E-2</v>
+      </c>
+      <c r="J13" s="4">
+        <v>51</v>
+      </c>
+      <c r="K13" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="L13" s="4">
+        <v>273</v>
+      </c>
+      <c r="M13" s="4">
+        <v>0.40300000000000002</v>
+      </c>
+      <c r="N13" s="4">
+        <v>518</v>
+      </c>
+      <c r="O13" s="4">
+        <v>3092</v>
+      </c>
+      <c r="P13" s="4">
+        <v>27.6</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="R13" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="4">
+        <v>1840</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G14" s="4">
+        <v>1000</v>
+      </c>
+      <c r="H14" s="4">
+        <v>1.299E-2</v>
+      </c>
+      <c r="I14" s="4">
+        <f t="shared" si="0"/>
+        <v>1.9484999999999999E-2</v>
+      </c>
+      <c r="J14" s="4">
+        <v>55</v>
+      </c>
+      <c r="K14" s="4">
+        <v>0.246</v>
+      </c>
+      <c r="L14" s="4">
+        <v>492</v>
+      </c>
+      <c r="M14" s="4">
+        <v>0.40300000000000002</v>
+      </c>
+      <c r="N14" s="4">
+        <v>518</v>
+      </c>
+      <c r="O14" s="4">
+        <v>3092</v>
+      </c>
+      <c r="P14" s="4">
+        <v>27.6</v>
+      </c>
+      <c r="Q14" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="R14" s="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="4">
+        <v>2000</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G15" s="4">
+        <v>1100</v>
+      </c>
+      <c r="H15" s="4">
+        <v>1.3299999999999999E-2</v>
+      </c>
+      <c r="I15" s="4">
+        <f t="shared" si="0"/>
+        <v>1.9949999999999999E-2</v>
+      </c>
+      <c r="J15" s="4">
+        <v>51</v>
+      </c>
+      <c r="K15" s="4">
+        <v>0.246</v>
+      </c>
+      <c r="L15" s="4">
+        <v>492</v>
+      </c>
+      <c r="M15" s="4">
+        <v>0.40300000000000002</v>
+      </c>
+      <c r="N15" s="4">
+        <v>518</v>
+      </c>
+      <c r="O15" s="4">
+        <v>3092</v>
+      </c>
+      <c r="P15" s="4">
+        <v>27.6</v>
+      </c>
+      <c r="Q15" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="R15" s="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="4">
+        <v>1840</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G16" s="4">
+        <v>1000</v>
+      </c>
+      <c r="H16" s="4">
+        <v>1.338E-2</v>
+      </c>
+      <c r="I16" s="4">
+        <f t="shared" si="0"/>
+        <v>2.0069999999999998E-2</v>
+      </c>
+      <c r="J16" s="4">
+        <v>55</v>
+      </c>
+      <c r="K16" s="4">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="L16" s="4">
+        <v>417</v>
+      </c>
+      <c r="M16" s="4">
+        <v>0.40300000000000002</v>
+      </c>
+      <c r="N16" s="4">
+        <v>518</v>
+      </c>
+      <c r="O16" s="4">
+        <v>3092</v>
+      </c>
+      <c r="P16" s="4">
+        <v>27.6</v>
+      </c>
+      <c r="Q16" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="R16" s="4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="4">
+        <v>2000</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G17" s="4">
+        <v>1100</v>
+      </c>
+      <c r="H17" s="4">
+        <v>1.421E-2</v>
+      </c>
+      <c r="I17" s="4">
+        <f t="shared" si="0"/>
+        <v>2.1315000000000001E-2</v>
+      </c>
+      <c r="J17" s="4">
+        <v>51</v>
+      </c>
+      <c r="K17" s="4">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="L17" s="4">
+        <v>417</v>
+      </c>
+      <c r="M17" s="4">
+        <v>0.40300000000000002</v>
+      </c>
+      <c r="N17" s="4">
+        <v>518</v>
+      </c>
+      <c r="O17" s="4">
+        <v>3092</v>
+      </c>
+      <c r="P17" s="4">
+        <v>27.6</v>
+      </c>
+      <c r="Q17" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="R17" s="4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="4">
+        <v>1840</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G18" s="4">
+        <v>1000</v>
+      </c>
+      <c r="H18" s="4">
+        <v>1.6E-2</v>
+      </c>
+      <c r="I18" s="4">
+        <f t="shared" si="0"/>
+        <v>2.4E-2</v>
+      </c>
+      <c r="J18" s="4">
+        <v>55</v>
+      </c>
+      <c r="K18" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="L18" s="4">
+        <v>273</v>
+      </c>
+      <c r="M18" s="4">
+        <v>0.40300000000000002</v>
+      </c>
+      <c r="N18" s="4">
+        <v>518</v>
+      </c>
+      <c r="O18" s="4">
+        <v>3092</v>
+      </c>
+      <c r="P18" s="4">
+        <v>27.6</v>
+      </c>
+      <c r="Q18" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="R18" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" s="4">
+        <v>2000</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G19" s="4">
+        <v>1100</v>
+      </c>
+      <c r="H19" s="4">
+        <v>1.6379999999999999E-2</v>
+      </c>
+      <c r="I19" s="4">
+        <f t="shared" si="0"/>
+        <v>2.4569999999999998E-2</v>
+      </c>
+      <c r="J19" s="4">
+        <v>51</v>
+      </c>
+      <c r="K19" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="L19" s="4">
+        <v>273</v>
+      </c>
+      <c r="M19" s="4">
+        <v>0.40300000000000002</v>
+      </c>
+      <c r="N19" s="4">
+        <v>518</v>
+      </c>
+      <c r="O19" s="4">
+        <v>3092</v>
+      </c>
+      <c r="P19" s="4">
+        <v>27.6</v>
+      </c>
+      <c r="Q19" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="R19" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="4">
+        <v>1840</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G20" s="4">
+        <v>270</v>
+      </c>
+      <c r="H20" s="4">
+        <v>9.3600000000000003E-3</v>
+      </c>
+      <c r="I20" s="4">
+        <f t="shared" si="0"/>
+        <v>1.404E-2</v>
+      </c>
+      <c r="J20" s="4">
+        <v>55</v>
+      </c>
+      <c r="K20" s="4">
+        <v>0.82</v>
+      </c>
+      <c r="L20" s="4">
+        <v>492</v>
+      </c>
+      <c r="M20" s="4">
+        <v>0.433</v>
+      </c>
+      <c r="N20" s="4">
+        <v>612</v>
+      </c>
+      <c r="O20" s="4">
+        <v>2853</v>
+      </c>
+      <c r="P20" s="4">
+        <v>25</v>
+      </c>
+      <c r="Q20" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="R20" s="4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="4">
+        <v>2000</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G21" s="4">
+        <v>295</v>
+      </c>
+      <c r="H21" s="4">
+        <v>9.5700000000000004E-3</v>
+      </c>
+      <c r="I21" s="4">
+        <f t="shared" si="0"/>
+        <v>1.4355E-2</v>
+      </c>
+      <c r="J21" s="4">
+        <v>51</v>
+      </c>
+      <c r="K21" s="4">
+        <v>0.82</v>
+      </c>
+      <c r="L21" s="4">
+        <v>492</v>
+      </c>
+      <c r="M21" s="4">
+        <v>0.433</v>
+      </c>
+      <c r="N21" s="4">
+        <v>612</v>
+      </c>
+      <c r="O21" s="4">
+        <v>2853</v>
+      </c>
+      <c r="P21" s="4">
+        <v>25</v>
+      </c>
+      <c r="Q21" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="R21" s="4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="4">
+        <v>1600</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G22" s="4">
+        <v>230</v>
+      </c>
+      <c r="H22" s="4">
+        <v>9.6100000000000005E-3</v>
+      </c>
+      <c r="I22" s="4">
+        <f t="shared" si="0"/>
+        <v>1.4415000000000001E-2</v>
+      </c>
+      <c r="J22" s="4">
+        <v>63</v>
+      </c>
+      <c r="K22" s="4">
+        <v>0.87</v>
+      </c>
+      <c r="L22" s="4">
+        <v>417</v>
+      </c>
+      <c r="M22" s="4">
+        <v>0.433</v>
+      </c>
+      <c r="N22" s="4">
+        <v>612</v>
+      </c>
+      <c r="O22" s="4">
+        <v>2853</v>
+      </c>
+      <c r="P22" s="4">
+        <v>25</v>
+      </c>
+      <c r="Q22" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="R22" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="4">
+        <v>1840</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G23" s="4">
+        <v>270</v>
+      </c>
+      <c r="H23" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="I23" s="4">
+        <f t="shared" si="0"/>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="J23" s="4">
+        <v>55</v>
+      </c>
+      <c r="K23" s="4">
+        <v>0.87</v>
+      </c>
+      <c r="L23" s="4">
+        <v>417</v>
+      </c>
+      <c r="M23" s="4">
+        <v>0.433</v>
+      </c>
+      <c r="N23" s="4">
+        <v>612</v>
+      </c>
+      <c r="O23" s="4">
+        <v>2853</v>
+      </c>
+      <c r="P23" s="4">
+        <v>25</v>
+      </c>
+      <c r="Q23" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="R23" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="4">
+        <v>2000</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G24" s="4">
+        <v>295</v>
+      </c>
+      <c r="H24" s="4">
+        <v>1.023E-2</v>
+      </c>
+      <c r="I24" s="4">
+        <f t="shared" si="0"/>
+        <v>1.5344999999999999E-2</v>
+      </c>
+      <c r="J24" s="4">
+        <v>51</v>
+      </c>
+      <c r="K24" s="4">
+        <v>0.87</v>
+      </c>
+      <c r="L24" s="4">
+        <v>417</v>
+      </c>
+      <c r="M24" s="4">
+        <v>0.433</v>
+      </c>
+      <c r="N24" s="4">
+        <v>612</v>
+      </c>
+      <c r="O24" s="4">
+        <v>2853</v>
+      </c>
+      <c r="P24" s="4">
+        <v>25</v>
+      </c>
+      <c r="Q24" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="R24" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="4">
+        <v>1600</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G25" s="4">
+        <v>180</v>
+      </c>
+      <c r="H25" s="4">
+        <v>9.0399999999999994E-3</v>
+      </c>
+      <c r="I25" s="4">
+        <f t="shared" si="0"/>
+        <v>1.3559999999999999E-2</v>
+      </c>
+      <c r="J25" s="4">
+        <v>63</v>
+      </c>
+      <c r="K25" s="4">
+        <v>0.95699999999999996</v>
+      </c>
+      <c r="L25" s="4">
+        <v>417</v>
+      </c>
+      <c r="M25" s="4">
+        <v>0.433</v>
+      </c>
+      <c r="N25" s="4">
+        <v>612</v>
+      </c>
+      <c r="O25" s="4">
+        <v>2561</v>
+      </c>
+      <c r="P25" s="4">
+        <v>23</v>
+      </c>
+      <c r="Q25" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="R25" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="4">
+        <v>1840</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G26" s="4">
+        <v>210</v>
+      </c>
+      <c r="H26" s="4">
+        <v>9.3900000000000008E-3</v>
+      </c>
+      <c r="I26" s="4">
+        <f t="shared" si="0"/>
+        <v>1.4085E-2</v>
+      </c>
+      <c r="J26" s="4">
+        <v>55</v>
+      </c>
+      <c r="K26" s="4">
+        <v>0.95699999999999996</v>
+      </c>
+      <c r="L26" s="4">
+        <v>417</v>
+      </c>
+      <c r="M26" s="4">
+        <v>0.433</v>
+      </c>
+      <c r="N26" s="4">
+        <v>612</v>
+      </c>
+      <c r="O26" s="4">
+        <v>2561</v>
+      </c>
+      <c r="P26" s="4">
+        <v>23</v>
+      </c>
+      <c r="Q26" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="R26" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="4">
+        <v>2000</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G27" s="4">
+        <v>230</v>
+      </c>
+      <c r="H27" s="4">
+        <v>9.6100000000000005E-3</v>
+      </c>
+      <c r="I27" s="4">
+        <f t="shared" si="0"/>
+        <v>1.4415000000000001E-2</v>
+      </c>
+      <c r="J27" s="4">
+        <v>51</v>
+      </c>
+      <c r="K27" s="4">
+        <v>0.95699999999999996</v>
+      </c>
+      <c r="L27" s="4">
+        <v>417</v>
+      </c>
+      <c r="M27" s="4">
+        <v>0.433</v>
+      </c>
+      <c r="N27" s="4">
+        <v>612</v>
+      </c>
+      <c r="O27" s="4">
+        <v>2561</v>
+      </c>
+      <c r="P27" s="4">
+        <v>23</v>
+      </c>
+      <c r="Q27" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="R27" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" s="4">
+        <v>1600</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G28" s="4">
+        <v>230</v>
+      </c>
+      <c r="H28" s="4">
+        <v>1.11E-2</v>
+      </c>
+      <c r="I28" s="4">
+        <f t="shared" si="0"/>
+        <v>1.6650000000000002E-2</v>
+      </c>
+      <c r="J28" s="4">
+        <v>63</v>
+      </c>
+      <c r="K28" s="4">
+        <v>1</v>
+      </c>
+      <c r="L28" s="4">
+        <v>273</v>
+      </c>
+      <c r="M28" s="4">
+        <v>0.433</v>
+      </c>
+      <c r="N28" s="4">
+        <v>527</v>
+      </c>
+      <c r="O28" s="4">
+        <v>2466</v>
+      </c>
+      <c r="P28" s="4">
+        <v>23</v>
+      </c>
+      <c r="Q28" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="R28" s="4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B29" s="4">
+        <v>1840</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G29" s="4">
+        <v>260</v>
+      </c>
+      <c r="H29" s="4">
+        <v>1.145E-2</v>
+      </c>
+      <c r="I29" s="4">
+        <f t="shared" si="0"/>
+        <v>1.7174999999999999E-2</v>
+      </c>
+      <c r="J29" s="4">
+        <v>55</v>
+      </c>
+      <c r="K29" s="4">
+        <v>1</v>
+      </c>
+      <c r="L29" s="4">
+        <v>273</v>
+      </c>
+      <c r="M29" s="4">
+        <v>0.433</v>
+      </c>
+      <c r="N29" s="4">
+        <v>527</v>
+      </c>
+      <c r="O29" s="4">
+        <v>2466</v>
+      </c>
+      <c r="P29" s="4">
+        <v>23</v>
+      </c>
+      <c r="Q29" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="R29" s="4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" s="4">
+        <v>2000</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G30" s="4">
+        <v>290</v>
+      </c>
+      <c r="H30" s="4">
+        <v>1.176E-2</v>
+      </c>
+      <c r="I30" s="4">
+        <f t="shared" si="0"/>
+        <v>1.7639999999999999E-2</v>
+      </c>
+      <c r="J30" s="4">
+        <v>51</v>
+      </c>
+      <c r="K30" s="4">
+        <v>1</v>
+      </c>
+      <c r="L30" s="4">
+        <v>273</v>
+      </c>
+      <c r="M30" s="4">
+        <v>0.433</v>
+      </c>
+      <c r="N30" s="4">
+        <v>527</v>
+      </c>
+      <c r="O30" s="4">
+        <v>2466</v>
+      </c>
+      <c r="P30" s="4">
+        <v>23</v>
+      </c>
+      <c r="Q30" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="R30" s="4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" s="4">
+        <v>1600</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G31" s="4">
+        <v>180</v>
+      </c>
+      <c r="H31" s="4">
+        <v>1.044E-2</v>
+      </c>
+      <c r="I31" s="4">
+        <f t="shared" si="0"/>
+        <v>1.566E-2</v>
+      </c>
+      <c r="J31" s="4">
+        <v>63</v>
+      </c>
+      <c r="K31" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L31" s="4">
+        <v>273</v>
+      </c>
+      <c r="M31" s="4">
+        <v>0.433</v>
+      </c>
+      <c r="N31" s="4">
+        <v>527</v>
+      </c>
+      <c r="O31" s="4">
+        <v>2561</v>
+      </c>
+      <c r="P31" s="4">
+        <v>23</v>
+      </c>
+      <c r="Q31" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="R31" s="4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B32" s="4">
+        <v>1840</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G32" s="4">
+        <v>210</v>
+      </c>
+      <c r="H32" s="4">
+        <v>1.085E-2</v>
+      </c>
+      <c r="I32" s="4">
+        <f t="shared" si="0"/>
+        <v>1.6275000000000001E-2</v>
+      </c>
+      <c r="J32" s="4">
+        <v>55</v>
+      </c>
+      <c r="K32" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L32" s="4">
+        <v>273</v>
+      </c>
+      <c r="M32" s="4">
+        <v>0.433</v>
+      </c>
+      <c r="N32" s="4">
+        <v>527</v>
+      </c>
+      <c r="O32" s="4">
+        <v>2561</v>
+      </c>
+      <c r="P32" s="4">
+        <v>23</v>
+      </c>
+      <c r="Q32" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="R32" s="4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B33" s="4">
+        <v>2000</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G33" s="4">
+        <v>230</v>
+      </c>
+      <c r="H33" s="4">
+        <v>1.11E-2</v>
+      </c>
+      <c r="I33" s="4">
+        <f t="shared" si="0"/>
+        <v>1.6650000000000002E-2</v>
+      </c>
+      <c r="J33" s="4">
+        <v>51</v>
+      </c>
+      <c r="K33" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L33" s="4">
+        <v>273</v>
+      </c>
+      <c r="M33" s="4">
+        <v>0.433</v>
+      </c>
+      <c r="N33" s="4">
+        <v>527</v>
+      </c>
+      <c r="O33" s="4">
+        <v>2561</v>
+      </c>
+      <c r="P33" s="4">
+        <v>23</v>
+      </c>
+      <c r="Q33" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="R33" s="4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34" s="4">
+        <v>1600</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G34" s="4">
+        <v>180</v>
+      </c>
+      <c r="H34" s="4">
+        <v>1.044E-2</v>
+      </c>
+      <c r="I34" s="4">
+        <f t="shared" si="0"/>
+        <v>1.566E-2</v>
+      </c>
+      <c r="J34" s="4">
+        <v>63</v>
+      </c>
+      <c r="K34" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="L34" s="4">
+        <v>273</v>
+      </c>
+      <c r="M34" s="4">
+        <v>0.433</v>
+      </c>
+      <c r="N34" s="4">
+        <v>527</v>
+      </c>
+      <c r="O34" s="4">
+        <v>2561</v>
+      </c>
+      <c r="P34" s="4">
+        <v>23</v>
+      </c>
+      <c r="Q34" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="R34" s="4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35" s="4">
+        <v>1840</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G35" s="4">
+        <v>210</v>
+      </c>
+      <c r="H35" s="4">
+        <v>1.085E-2</v>
+      </c>
+      <c r="I35" s="4">
+        <f t="shared" si="0"/>
+        <v>1.6275000000000001E-2</v>
+      </c>
+      <c r="J35" s="4">
+        <v>55</v>
+      </c>
+      <c r="K35" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="L35" s="4">
+        <v>273</v>
+      </c>
+      <c r="M35" s="4">
+        <v>0.433</v>
+      </c>
+      <c r="N35" s="4">
+        <v>527</v>
+      </c>
+      <c r="O35" s="4">
+        <v>2561</v>
+      </c>
+      <c r="P35" s="4">
+        <v>23</v>
+      </c>
+      <c r="Q35" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="R35" s="4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B36" s="4">
+        <v>2000</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G36" s="4">
+        <v>230</v>
+      </c>
+      <c r="H36" s="4">
+        <v>1.11E-2</v>
+      </c>
+      <c r="I36" s="4">
+        <f t="shared" si="0"/>
+        <v>1.6650000000000002E-2</v>
+      </c>
+      <c r="J36" s="4">
+        <v>51</v>
+      </c>
+      <c r="K36" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="L36" s="4">
+        <v>273</v>
+      </c>
+      <c r="M36" s="4">
+        <v>0.433</v>
+      </c>
+      <c r="N36" s="4">
+        <v>527</v>
+      </c>
+      <c r="O36" s="4">
+        <v>2561</v>
+      </c>
+      <c r="P36" s="4">
+        <v>23</v>
+      </c>
+      <c r="Q36" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="R36" s="4">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R6"/>
   <sheetViews>

--- a/dannye.xlsx
+++ b/dannye.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\My Computer\Documents\Neiroexpert\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DFA2D11-C16D-4FDB-891E-2E7D196698DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2C6F062-AA24-4E52-99B6-1D747F79A20F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="73">
   <si>
     <t>vag_type</t>
   </si>
@@ -196,9 +196,6 @@
     <t>ksi</t>
   </si>
   <si>
-    <t>U_kgs</t>
-  </si>
-  <si>
     <t>kv_sm</t>
   </si>
   <si>
@@ -208,9 +205,6 @@
     <t>lsh_sm</t>
   </si>
   <si>
-    <t>W_cm3</t>
-  </si>
-  <si>
     <t>wpod_sm2</t>
   </si>
   <si>
@@ -239,6 +233,15 @@
   </si>
   <si>
     <t>uprug</t>
+  </si>
+  <si>
+    <t>wg_cm3</t>
+  </si>
+  <si>
+    <t>Uv_kgs</t>
+  </si>
+  <si>
+    <t>wv_cm3</t>
   </si>
 </sst>
 </file>
@@ -2046,10 +2049,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{202BBD52-9E91-42CA-A546-3F38FD89AB80}">
-  <dimension ref="A1:R36"/>
+  <dimension ref="A1:S36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2062,15 +2065,15 @@
     <col min="9" max="9" width="9.33203125" style="6" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="6" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.44140625" style="6" customWidth="1"/>
-    <col min="12" max="12" width="10.33203125" style="6" customWidth="1"/>
-    <col min="13" max="13" width="10.21875" style="6" customWidth="1"/>
-    <col min="14" max="14" width="10.33203125" style="6" customWidth="1"/>
-    <col min="15" max="15" width="12.21875" style="6" customWidth="1"/>
-    <col min="16" max="18" width="9" style="6" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="8.88671875" style="6"/>
+    <col min="12" max="13" width="10.33203125" style="6" customWidth="1"/>
+    <col min="14" max="14" width="10.21875" style="6" customWidth="1"/>
+    <col min="15" max="15" width="10.33203125" style="6" customWidth="1"/>
+    <col min="16" max="16" width="12.21875" style="6" customWidth="1"/>
+    <col min="17" max="19" width="9" style="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>26</v>
       </c>
@@ -2087,46 +2090,49 @@
         <v>27</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>60</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>51</v>
       </c>
       <c r="L1" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="P1" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="M1" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="N1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="O1" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>37</v>
       </c>
@@ -2137,13 +2143,13 @@
         <v>39</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>54</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G2" s="4">
         <v>1500</v>
@@ -2165,25 +2171,28 @@
         <v>492</v>
       </c>
       <c r="M2" s="4">
+        <v>89</v>
+      </c>
+      <c r="N2" s="4">
         <v>0.40300000000000002</v>
       </c>
-      <c r="N2" s="4">
+      <c r="O2" s="4">
         <v>518</v>
       </c>
-      <c r="O2" s="4">
+      <c r="P2" s="4">
         <v>3092</v>
       </c>
-      <c r="P2" s="4">
+      <c r="Q2" s="4">
         <v>27.6</v>
       </c>
-      <c r="Q2" s="4">
+      <c r="R2" s="4">
         <v>0.7</v>
       </c>
-      <c r="R2" s="4">
+      <c r="S2" s="4">
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>37</v>
       </c>
@@ -2194,13 +2203,13 @@
         <v>39</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>54</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G3" s="4">
         <v>1670</v>
@@ -2222,25 +2231,28 @@
         <v>492</v>
       </c>
       <c r="M3" s="4">
+        <v>89</v>
+      </c>
+      <c r="N3" s="4">
         <v>0.40300000000000002</v>
       </c>
-      <c r="N3" s="4">
+      <c r="O3" s="4">
         <v>518</v>
       </c>
-      <c r="O3" s="4">
+      <c r="P3" s="4">
         <v>3092</v>
       </c>
-      <c r="P3" s="4">
+      <c r="Q3" s="4">
         <v>27.6</v>
       </c>
-      <c r="Q3" s="4">
+      <c r="R3" s="4">
         <v>0.7</v>
       </c>
-      <c r="R3" s="4">
+      <c r="S3" s="4">
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>36</v>
       </c>
@@ -2251,13 +2263,13 @@
         <v>39</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G4" s="4">
         <v>1000</v>
@@ -2279,25 +2291,28 @@
         <v>417</v>
       </c>
       <c r="M4" s="4">
+        <v>75</v>
+      </c>
+      <c r="N4" s="4">
         <v>0.40300000000000002</v>
       </c>
-      <c r="N4" s="4">
+      <c r="O4" s="4">
         <v>518</v>
       </c>
-      <c r="O4" s="4">
+      <c r="P4" s="4">
         <v>3092</v>
       </c>
-      <c r="P4" s="4">
+      <c r="Q4" s="4">
         <v>27.6</v>
       </c>
-      <c r="Q4" s="4">
+      <c r="R4" s="4">
         <v>0.7</v>
       </c>
-      <c r="R4" s="4">
+      <c r="S4" s="4">
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>36</v>
       </c>
@@ -2308,13 +2323,13 @@
         <v>39</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G5" s="4">
         <v>1450</v>
@@ -2336,25 +2351,28 @@
         <v>417</v>
       </c>
       <c r="M5" s="4">
+        <v>75</v>
+      </c>
+      <c r="N5" s="4">
         <v>0.40300000000000002</v>
       </c>
-      <c r="N5" s="4">
+      <c r="O5" s="4">
         <v>518</v>
       </c>
-      <c r="O5" s="4">
+      <c r="P5" s="4">
         <v>3092</v>
       </c>
-      <c r="P5" s="4">
+      <c r="Q5" s="4">
         <v>27.6</v>
       </c>
-      <c r="Q5" s="4">
+      <c r="R5" s="4">
         <v>0.7</v>
       </c>
-      <c r="R5" s="4">
+      <c r="S5" s="4">
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>36</v>
       </c>
@@ -2365,13 +2383,13 @@
         <v>39</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>29</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G6" s="4">
         <v>940</v>
@@ -2393,25 +2411,28 @@
         <v>417</v>
       </c>
       <c r="M6" s="4">
+        <v>75</v>
+      </c>
+      <c r="N6" s="4">
         <v>0.40300000000000002</v>
       </c>
-      <c r="N6" s="4">
+      <c r="O6" s="4">
         <v>518</v>
       </c>
-      <c r="O6" s="4">
+      <c r="P6" s="4">
         <v>3092</v>
       </c>
-      <c r="P6" s="4">
+      <c r="Q6" s="4">
         <v>27.6</v>
       </c>
-      <c r="Q6" s="4">
+      <c r="R6" s="4">
         <v>0.7</v>
       </c>
-      <c r="R6" s="4">
+      <c r="S6" s="4">
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>36</v>
       </c>
@@ -2422,13 +2443,13 @@
         <v>39</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>30</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G7" s="4">
         <v>1020</v>
@@ -2450,25 +2471,28 @@
         <v>417</v>
       </c>
       <c r="M7" s="4">
+        <v>75</v>
+      </c>
+      <c r="N7" s="4">
         <v>0.40300000000000002</v>
       </c>
-      <c r="N7" s="4">
+      <c r="O7" s="4">
         <v>518</v>
       </c>
-      <c r="O7" s="4">
+      <c r="P7" s="4">
         <v>3092</v>
       </c>
-      <c r="P7" s="4">
+      <c r="Q7" s="4">
         <v>27.6</v>
       </c>
-      <c r="Q7" s="4">
+      <c r="R7" s="4">
         <v>0.7</v>
       </c>
-      <c r="R7" s="4">
+      <c r="S7" s="4">
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>36</v>
       </c>
@@ -2479,13 +2503,13 @@
         <v>39</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G8" s="4">
         <v>1100</v>
@@ -2507,25 +2531,28 @@
         <v>417</v>
       </c>
       <c r="M8" s="4">
+        <v>75</v>
+      </c>
+      <c r="N8" s="4">
         <v>0.40300000000000002</v>
       </c>
-      <c r="N8" s="4">
+      <c r="O8" s="4">
         <v>518</v>
       </c>
-      <c r="O8" s="4">
+      <c r="P8" s="4">
         <v>3092</v>
       </c>
-      <c r="P8" s="4">
+      <c r="Q8" s="4">
         <v>27.6</v>
       </c>
-      <c r="Q8" s="4">
+      <c r="R8" s="4">
         <v>0.7</v>
       </c>
-      <c r="R8" s="4">
+      <c r="S8" s="4">
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>36</v>
       </c>
@@ -2536,13 +2563,13 @@
         <v>39</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G9" s="4">
         <v>1550</v>
@@ -2564,25 +2591,28 @@
         <v>417</v>
       </c>
       <c r="M9" s="4">
+        <v>75</v>
+      </c>
+      <c r="N9" s="4">
         <v>0.40300000000000002</v>
       </c>
-      <c r="N9" s="4">
+      <c r="O9" s="4">
         <v>518</v>
       </c>
-      <c r="O9" s="4">
+      <c r="P9" s="4">
         <v>3092</v>
       </c>
-      <c r="P9" s="4">
+      <c r="Q9" s="4">
         <v>27.6</v>
       </c>
-      <c r="Q9" s="4">
+      <c r="R9" s="4">
         <v>0.7</v>
       </c>
-      <c r="R9" s="4">
+      <c r="S9" s="4">
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>36</v>
       </c>
@@ -2593,13 +2623,13 @@
         <v>39</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>29</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G10" s="4">
         <v>1000</v>
@@ -2621,25 +2651,28 @@
         <v>417</v>
       </c>
       <c r="M10" s="4">
+        <v>75</v>
+      </c>
+      <c r="N10" s="4">
         <v>0.40300000000000002</v>
       </c>
-      <c r="N10" s="4">
+      <c r="O10" s="4">
         <v>518</v>
       </c>
-      <c r="O10" s="4">
+      <c r="P10" s="4">
         <v>3092</v>
       </c>
-      <c r="P10" s="4">
+      <c r="Q10" s="4">
         <v>27.6</v>
       </c>
-      <c r="Q10" s="4">
+      <c r="R10" s="4">
         <v>0.7</v>
       </c>
-      <c r="R10" s="4">
+      <c r="S10" s="4">
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>36</v>
       </c>
@@ -2650,13 +2683,13 @@
         <v>39</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>30</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G11" s="4">
         <v>1100</v>
@@ -2678,27 +2711,30 @@
         <v>417</v>
       </c>
       <c r="M11" s="4">
+        <v>75</v>
+      </c>
+      <c r="N11" s="4">
         <v>0.40300000000000002</v>
       </c>
-      <c r="N11" s="4">
+      <c r="O11" s="4">
         <v>518</v>
       </c>
-      <c r="O11" s="4">
+      <c r="P11" s="4">
         <v>3092</v>
       </c>
-      <c r="P11" s="4">
+      <c r="Q11" s="4">
         <v>27.6</v>
       </c>
-      <c r="Q11" s="4">
+      <c r="R11" s="4">
         <v>0.7</v>
       </c>
-      <c r="R11" s="4">
+      <c r="S11" s="4">
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B12" s="4">
         <v>1840</v>
@@ -2707,13 +2743,13 @@
         <v>39</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>54</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G12" s="4">
         <v>1500</v>
@@ -2735,27 +2771,30 @@
         <v>273</v>
       </c>
       <c r="M12" s="4">
+        <v>55</v>
+      </c>
+      <c r="N12" s="4">
         <v>0.40300000000000002</v>
       </c>
-      <c r="N12" s="4">
+      <c r="O12" s="4">
         <v>518</v>
       </c>
-      <c r="O12" s="4">
+      <c r="P12" s="4">
         <v>3092</v>
       </c>
-      <c r="P12" s="4">
+      <c r="Q12" s="4">
         <v>27.6</v>
       </c>
-      <c r="Q12" s="4">
+      <c r="R12" s="4">
         <v>0.7</v>
       </c>
-      <c r="R12" s="4">
+      <c r="S12" s="4">
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B13" s="4">
         <v>2000</v>
@@ -2764,13 +2803,13 @@
         <v>39</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>54</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G13" s="4">
         <v>1670</v>
@@ -2792,25 +2831,28 @@
         <v>273</v>
       </c>
       <c r="M13" s="4">
+        <v>55</v>
+      </c>
+      <c r="N13" s="4">
         <v>0.40300000000000002</v>
       </c>
-      <c r="N13" s="4">
+      <c r="O13" s="4">
         <v>518</v>
       </c>
-      <c r="O13" s="4">
+      <c r="P13" s="4">
         <v>3092</v>
       </c>
-      <c r="P13" s="4">
+      <c r="Q13" s="4">
         <v>27.6</v>
       </c>
-      <c r="Q13" s="4">
+      <c r="R13" s="4">
         <v>0.7</v>
       </c>
-      <c r="R13" s="4">
+      <c r="S13" s="4">
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>37</v>
       </c>
@@ -2821,13 +2863,13 @@
         <v>39</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>54</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G14" s="4">
         <v>1000</v>
@@ -2849,25 +2891,28 @@
         <v>492</v>
       </c>
       <c r="M14" s="4">
+        <v>55</v>
+      </c>
+      <c r="N14" s="4">
         <v>0.40300000000000002</v>
       </c>
-      <c r="N14" s="4">
+      <c r="O14" s="4">
         <v>518</v>
       </c>
-      <c r="O14" s="4">
+      <c r="P14" s="4">
         <v>3092</v>
       </c>
-      <c r="P14" s="4">
+      <c r="Q14" s="4">
         <v>27.6</v>
       </c>
-      <c r="Q14" s="4">
+      <c r="R14" s="4">
         <v>0.7</v>
       </c>
-      <c r="R14" s="4">
+      <c r="S14" s="4">
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>37</v>
       </c>
@@ -2878,13 +2923,13 @@
         <v>39</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>54</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G15" s="4">
         <v>1100</v>
@@ -2906,25 +2951,28 @@
         <v>492</v>
       </c>
       <c r="M15" s="4">
+        <v>55</v>
+      </c>
+      <c r="N15" s="4">
         <v>0.40300000000000002</v>
       </c>
-      <c r="N15" s="4">
+      <c r="O15" s="4">
         <v>518</v>
       </c>
-      <c r="O15" s="4">
+      <c r="P15" s="4">
         <v>3092</v>
       </c>
-      <c r="P15" s="4">
+      <c r="Q15" s="4">
         <v>27.6</v>
       </c>
-      <c r="Q15" s="4">
+      <c r="R15" s="4">
         <v>0.7</v>
       </c>
-      <c r="R15" s="4">
+      <c r="S15" s="4">
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>36</v>
       </c>
@@ -2935,13 +2983,13 @@
         <v>39</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>54</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G16" s="4">
         <v>1000</v>
@@ -2963,25 +3011,28 @@
         <v>417</v>
       </c>
       <c r="M16" s="4">
+        <v>75</v>
+      </c>
+      <c r="N16" s="4">
         <v>0.40300000000000002</v>
       </c>
-      <c r="N16" s="4">
+      <c r="O16" s="4">
         <v>518</v>
       </c>
-      <c r="O16" s="4">
+      <c r="P16" s="4">
         <v>3092</v>
       </c>
-      <c r="P16" s="4">
+      <c r="Q16" s="4">
         <v>27.6</v>
       </c>
-      <c r="Q16" s="4">
+      <c r="R16" s="4">
         <v>0.7</v>
       </c>
-      <c r="R16" s="4">
+      <c r="S16" s="4">
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>36</v>
       </c>
@@ -2992,13 +3043,13 @@
         <v>39</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>54</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G17" s="4">
         <v>1100</v>
@@ -3020,27 +3071,30 @@
         <v>417</v>
       </c>
       <c r="M17" s="4">
+        <v>75</v>
+      </c>
+      <c r="N17" s="4">
         <v>0.40300000000000002</v>
       </c>
-      <c r="N17" s="4">
+      <c r="O17" s="4">
         <v>518</v>
       </c>
-      <c r="O17" s="4">
+      <c r="P17" s="4">
         <v>3092</v>
       </c>
-      <c r="P17" s="4">
+      <c r="Q17" s="4">
         <v>27.6</v>
       </c>
-      <c r="Q17" s="4">
+      <c r="R17" s="4">
         <v>0.7</v>
       </c>
-      <c r="R17" s="4">
+      <c r="S17" s="4">
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B18" s="4">
         <v>1840</v>
@@ -3049,13 +3103,13 @@
         <v>39</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>54</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G18" s="4">
         <v>1000</v>
@@ -3077,27 +3131,30 @@
         <v>273</v>
       </c>
       <c r="M18" s="4">
+        <v>55</v>
+      </c>
+      <c r="N18" s="4">
         <v>0.40300000000000002</v>
       </c>
-      <c r="N18" s="4">
+      <c r="O18" s="4">
         <v>518</v>
       </c>
-      <c r="O18" s="4">
+      <c r="P18" s="4">
         <v>3092</v>
       </c>
-      <c r="P18" s="4">
+      <c r="Q18" s="4">
         <v>27.6</v>
       </c>
-      <c r="Q18" s="4">
+      <c r="R18" s="4">
         <v>0.7</v>
       </c>
-      <c r="R18" s="4">
+      <c r="S18" s="4">
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B19" s="4">
         <v>2000</v>
@@ -3106,13 +3163,13 @@
         <v>39</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>54</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G19" s="4">
         <v>1100</v>
@@ -3134,25 +3191,28 @@
         <v>273</v>
       </c>
       <c r="M19" s="4">
+        <v>55</v>
+      </c>
+      <c r="N19" s="4">
         <v>0.40300000000000002</v>
       </c>
-      <c r="N19" s="4">
+      <c r="O19" s="4">
         <v>518</v>
       </c>
-      <c r="O19" s="4">
+      <c r="P19" s="4">
         <v>3092</v>
       </c>
-      <c r="P19" s="4">
+      <c r="Q19" s="4">
         <v>27.6</v>
       </c>
-      <c r="Q19" s="4">
+      <c r="R19" s="4">
         <v>0.7</v>
       </c>
-      <c r="R19" s="4">
+      <c r="S19" s="4">
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>37</v>
       </c>
@@ -3163,13 +3223,13 @@
         <v>40</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>54</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G20" s="4">
         <v>270</v>
@@ -3191,25 +3251,28 @@
         <v>492</v>
       </c>
       <c r="M20" s="4">
+        <v>89</v>
+      </c>
+      <c r="N20" s="4">
         <v>0.433</v>
       </c>
-      <c r="N20" s="4">
+      <c r="O20" s="4">
         <v>612</v>
       </c>
-      <c r="O20" s="4">
+      <c r="P20" s="4">
         <v>2853</v>
       </c>
-      <c r="P20" s="4">
+      <c r="Q20" s="4">
         <v>25</v>
       </c>
-      <c r="Q20" s="4">
+      <c r="R20" s="4">
         <v>0.8</v>
       </c>
-      <c r="R20" s="4">
+      <c r="S20" s="4">
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>37</v>
       </c>
@@ -3220,13 +3283,13 @@
         <v>40</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>54</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G21" s="4">
         <v>295</v>
@@ -3248,25 +3311,28 @@
         <v>492</v>
       </c>
       <c r="M21" s="4">
+        <v>89</v>
+      </c>
+      <c r="N21" s="4">
         <v>0.433</v>
       </c>
-      <c r="N21" s="4">
+      <c r="O21" s="4">
         <v>612</v>
       </c>
-      <c r="O21" s="4">
+      <c r="P21" s="4">
         <v>2853</v>
       </c>
-      <c r="P21" s="4">
+      <c r="Q21" s="4">
         <v>25</v>
       </c>
-      <c r="Q21" s="4">
+      <c r="R21" s="4">
         <v>0.8</v>
       </c>
-      <c r="R21" s="4">
+      <c r="S21" s="4">
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>36</v>
       </c>
@@ -3277,13 +3343,13 @@
         <v>40</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>54</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G22" s="4">
         <v>230</v>
@@ -3305,25 +3371,28 @@
         <v>417</v>
       </c>
       <c r="M22" s="4">
+        <v>75</v>
+      </c>
+      <c r="N22" s="4">
         <v>0.433</v>
       </c>
-      <c r="N22" s="4">
+      <c r="O22" s="4">
         <v>612</v>
       </c>
-      <c r="O22" s="4">
+      <c r="P22" s="4">
         <v>2853</v>
       </c>
-      <c r="P22" s="4">
+      <c r="Q22" s="4">
         <v>25</v>
       </c>
-      <c r="Q22" s="4">
+      <c r="R22" s="4">
         <v>0.8</v>
       </c>
-      <c r="R22" s="4">
+      <c r="S22" s="4">
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>36</v>
       </c>
@@ -3334,13 +3403,13 @@
         <v>40</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>54</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G23" s="4">
         <v>270</v>
@@ -3362,25 +3431,28 @@
         <v>417</v>
       </c>
       <c r="M23" s="4">
+        <v>75</v>
+      </c>
+      <c r="N23" s="4">
         <v>0.433</v>
       </c>
-      <c r="N23" s="4">
+      <c r="O23" s="4">
         <v>612</v>
       </c>
-      <c r="O23" s="4">
+      <c r="P23" s="4">
         <v>2853</v>
       </c>
-      <c r="P23" s="4">
+      <c r="Q23" s="4">
         <v>25</v>
       </c>
-      <c r="Q23" s="4">
+      <c r="R23" s="4">
         <v>0.8</v>
       </c>
-      <c r="R23" s="4">
+      <c r="S23" s="4">
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>36</v>
       </c>
@@ -3391,13 +3463,13 @@
         <v>40</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>54</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G24" s="4">
         <v>295</v>
@@ -3419,25 +3491,28 @@
         <v>417</v>
       </c>
       <c r="M24" s="4">
+        <v>75</v>
+      </c>
+      <c r="N24" s="4">
         <v>0.433</v>
       </c>
-      <c r="N24" s="4">
+      <c r="O24" s="4">
         <v>612</v>
       </c>
-      <c r="O24" s="4">
+      <c r="P24" s="4">
         <v>2853</v>
       </c>
-      <c r="P24" s="4">
+      <c r="Q24" s="4">
         <v>25</v>
       </c>
-      <c r="Q24" s="4">
+      <c r="R24" s="4">
         <v>0.8</v>
       </c>
-      <c r="R24" s="4">
+      <c r="S24" s="4">
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>36</v>
       </c>
@@ -3448,13 +3523,13 @@
         <v>40</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>54</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G25" s="4">
         <v>180</v>
@@ -3476,25 +3551,28 @@
         <v>417</v>
       </c>
       <c r="M25" s="4">
+        <v>75</v>
+      </c>
+      <c r="N25" s="4">
         <v>0.433</v>
       </c>
-      <c r="N25" s="4">
+      <c r="O25" s="4">
         <v>612</v>
       </c>
-      <c r="O25" s="4">
+      <c r="P25" s="4">
         <v>2561</v>
       </c>
-      <c r="P25" s="4">
+      <c r="Q25" s="4">
         <v>23</v>
       </c>
-      <c r="Q25" s="4">
+      <c r="R25" s="4">
         <v>0.8</v>
       </c>
-      <c r="R25" s="4">
+      <c r="S25" s="4">
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>36</v>
       </c>
@@ -3505,13 +3583,13 @@
         <v>40</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>54</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G26" s="4">
         <v>210</v>
@@ -3533,25 +3611,28 @@
         <v>417</v>
       </c>
       <c r="M26" s="4">
+        <v>75</v>
+      </c>
+      <c r="N26" s="4">
         <v>0.433</v>
       </c>
-      <c r="N26" s="4">
+      <c r="O26" s="4">
         <v>612</v>
       </c>
-      <c r="O26" s="4">
+      <c r="P26" s="4">
         <v>2561</v>
       </c>
-      <c r="P26" s="4">
+      <c r="Q26" s="4">
         <v>23</v>
       </c>
-      <c r="Q26" s="4">
+      <c r="R26" s="4">
         <v>0.8</v>
       </c>
-      <c r="R26" s="4">
+      <c r="S26" s="4">
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>36</v>
       </c>
@@ -3562,13 +3643,13 @@
         <v>40</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>54</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G27" s="4">
         <v>230</v>
@@ -3590,27 +3671,30 @@
         <v>417</v>
       </c>
       <c r="M27" s="4">
+        <v>75</v>
+      </c>
+      <c r="N27" s="4">
         <v>0.433</v>
       </c>
-      <c r="N27" s="4">
+      <c r="O27" s="4">
         <v>612</v>
       </c>
-      <c r="O27" s="4">
+      <c r="P27" s="4">
         <v>2561</v>
       </c>
-      <c r="P27" s="4">
+      <c r="Q27" s="4">
         <v>23</v>
       </c>
-      <c r="Q27" s="4">
+      <c r="R27" s="4">
         <v>0.8</v>
       </c>
-      <c r="R27" s="4">
+      <c r="S27" s="4">
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B28" s="4">
         <v>1600</v>
@@ -3619,13 +3703,13 @@
         <v>40</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>54</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G28" s="4">
         <v>230</v>
@@ -3647,27 +3731,30 @@
         <v>273</v>
       </c>
       <c r="M28" s="4">
+        <v>55</v>
+      </c>
+      <c r="N28" s="4">
         <v>0.433</v>
       </c>
-      <c r="N28" s="4">
+      <c r="O28" s="4">
         <v>527</v>
       </c>
-      <c r="O28" s="4">
+      <c r="P28" s="4">
         <v>2466</v>
       </c>
-      <c r="P28" s="4">
+      <c r="Q28" s="4">
         <v>23</v>
       </c>
-      <c r="Q28" s="4">
+      <c r="R28" s="4">
         <v>0.8</v>
       </c>
-      <c r="R28" s="4">
+      <c r="S28" s="4">
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B29" s="4">
         <v>1840</v>
@@ -3676,13 +3763,13 @@
         <v>40</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>54</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G29" s="4">
         <v>260</v>
@@ -3704,27 +3791,30 @@
         <v>273</v>
       </c>
       <c r="M29" s="4">
+        <v>55</v>
+      </c>
+      <c r="N29" s="4">
         <v>0.433</v>
       </c>
-      <c r="N29" s="4">
+      <c r="O29" s="4">
         <v>527</v>
       </c>
-      <c r="O29" s="4">
+      <c r="P29" s="4">
         <v>2466</v>
       </c>
-      <c r="P29" s="4">
+      <c r="Q29" s="4">
         <v>23</v>
       </c>
-      <c r="Q29" s="4">
+      <c r="R29" s="4">
         <v>0.8</v>
       </c>
-      <c r="R29" s="4">
+      <c r="S29" s="4">
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B30" s="4">
         <v>2000</v>
@@ -3733,13 +3823,13 @@
         <v>40</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>54</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G30" s="4">
         <v>290</v>
@@ -3761,27 +3851,30 @@
         <v>273</v>
       </c>
       <c r="M30" s="4">
+        <v>55</v>
+      </c>
+      <c r="N30" s="4">
         <v>0.433</v>
       </c>
-      <c r="N30" s="4">
+      <c r="O30" s="4">
         <v>527</v>
       </c>
-      <c r="O30" s="4">
+      <c r="P30" s="4">
         <v>2466</v>
       </c>
-      <c r="P30" s="4">
+      <c r="Q30" s="4">
         <v>23</v>
       </c>
-      <c r="Q30" s="4">
+      <c r="R30" s="4">
         <v>0.8</v>
       </c>
-      <c r="R30" s="4">
+      <c r="S30" s="4">
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B31" s="4">
         <v>1600</v>
@@ -3790,13 +3883,13 @@
         <v>40</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>54</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G31" s="4">
         <v>180</v>
@@ -3818,27 +3911,30 @@
         <v>273</v>
       </c>
       <c r="M31" s="4">
+        <v>55</v>
+      </c>
+      <c r="N31" s="4">
         <v>0.433</v>
       </c>
-      <c r="N31" s="4">
+      <c r="O31" s="4">
         <v>527</v>
       </c>
-      <c r="O31" s="4">
+      <c r="P31" s="4">
         <v>2561</v>
       </c>
-      <c r="P31" s="4">
+      <c r="Q31" s="4">
         <v>23</v>
       </c>
-      <c r="Q31" s="4">
+      <c r="R31" s="4">
         <v>0.8</v>
       </c>
-      <c r="R31" s="4">
+      <c r="S31" s="4">
         <v>45</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B32" s="4">
         <v>1840</v>
@@ -3847,13 +3943,13 @@
         <v>40</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>54</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G32" s="4">
         <v>210</v>
@@ -3875,27 +3971,30 @@
         <v>273</v>
       </c>
       <c r="M32" s="4">
+        <v>55</v>
+      </c>
+      <c r="N32" s="4">
         <v>0.433</v>
       </c>
-      <c r="N32" s="4">
+      <c r="O32" s="4">
         <v>527</v>
       </c>
-      <c r="O32" s="4">
+      <c r="P32" s="4">
         <v>2561</v>
       </c>
-      <c r="P32" s="4">
+      <c r="Q32" s="4">
         <v>23</v>
       </c>
-      <c r="Q32" s="4">
+      <c r="R32" s="4">
         <v>0.8</v>
       </c>
-      <c r="R32" s="4">
+      <c r="S32" s="4">
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B33" s="4">
         <v>2000</v>
@@ -3904,13 +4003,13 @@
         <v>40</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>54</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G33" s="4">
         <v>230</v>
@@ -3932,27 +4031,30 @@
         <v>273</v>
       </c>
       <c r="M33" s="4">
+        <v>55</v>
+      </c>
+      <c r="N33" s="4">
         <v>0.433</v>
       </c>
-      <c r="N33" s="4">
+      <c r="O33" s="4">
         <v>527</v>
       </c>
-      <c r="O33" s="4">
+      <c r="P33" s="4">
         <v>2561</v>
       </c>
-      <c r="P33" s="4">
+      <c r="Q33" s="4">
         <v>23</v>
       </c>
-      <c r="Q33" s="4">
+      <c r="R33" s="4">
         <v>0.8</v>
       </c>
-      <c r="R33" s="4">
+      <c r="S33" s="4">
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B34" s="4">
         <v>1600</v>
@@ -3961,13 +4063,13 @@
         <v>40</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>54</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G34" s="4">
         <v>180</v>
@@ -3989,27 +4091,30 @@
         <v>273</v>
       </c>
       <c r="M34" s="4">
+        <v>55</v>
+      </c>
+      <c r="N34" s="4">
         <v>0.433</v>
       </c>
-      <c r="N34" s="4">
+      <c r="O34" s="4">
         <v>527</v>
       </c>
-      <c r="O34" s="4">
+      <c r="P34" s="4">
         <v>2561</v>
       </c>
-      <c r="P34" s="4">
+      <c r="Q34" s="4">
         <v>23</v>
       </c>
-      <c r="Q34" s="4">
+      <c r="R34" s="4">
         <v>0.8</v>
       </c>
-      <c r="R34" s="4">
+      <c r="S34" s="4">
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B35" s="4">
         <v>1840</v>
@@ -4018,13 +4123,13 @@
         <v>40</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>54</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G35" s="4">
         <v>210</v>
@@ -4046,27 +4151,30 @@
         <v>273</v>
       </c>
       <c r="M35" s="4">
+        <v>55</v>
+      </c>
+      <c r="N35" s="4">
         <v>0.433</v>
       </c>
-      <c r="N35" s="4">
+      <c r="O35" s="4">
         <v>527</v>
       </c>
-      <c r="O35" s="4">
+      <c r="P35" s="4">
         <v>2561</v>
       </c>
-      <c r="P35" s="4">
+      <c r="Q35" s="4">
         <v>23</v>
       </c>
-      <c r="Q35" s="4">
+      <c r="R35" s="4">
         <v>0.8</v>
       </c>
-      <c r="R35" s="4">
+      <c r="S35" s="4">
         <v>45</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B36" s="4">
         <v>2000</v>
@@ -4075,13 +4183,13 @@
         <v>40</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>54</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G36" s="4">
         <v>230</v>
@@ -4103,21 +4211,24 @@
         <v>273</v>
       </c>
       <c r="M36" s="4">
+        <v>55</v>
+      </c>
+      <c r="N36" s="4">
         <v>0.433</v>
       </c>
-      <c r="N36" s="4">
+      <c r="O36" s="4">
         <v>527</v>
       </c>
-      <c r="O36" s="4">
+      <c r="P36" s="4">
         <v>2561</v>
       </c>
-      <c r="P36" s="4">
+      <c r="Q36" s="4">
         <v>23</v>
       </c>
-      <c r="Q36" s="4">
+      <c r="R36" s="4">
         <v>0.8</v>
       </c>
-      <c r="R36" s="4">
+      <c r="S36" s="4">
         <v>45</v>
       </c>
     </row>

--- a/dannye.xlsx
+++ b/dannye.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\My Computer\Documents\Neiroexpert\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2C6F062-AA24-4E52-99B6-1D747F79A20F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD250BD7-634B-4FBA-BECC-89A246A26A2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="line" sheetId="3" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="73">
   <si>
     <t>vag_type</t>
   </si>
@@ -671,8 +671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03B60433-AA79-4942-8211-43192B4F2CAE}">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:I21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2049,10 +2049,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{202BBD52-9E91-42CA-A546-3F38FD89AB80}">
-  <dimension ref="A1:S36"/>
+  <dimension ref="A1:S38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2218,7 +2218,7 @@
         <v>1.477E-2</v>
       </c>
       <c r="I3" s="4">
-        <f t="shared" ref="I3:I36" si="0">1.5*H3</f>
+        <f t="shared" ref="I3:I38" si="0">1.5*H3</f>
         <v>2.2155000000000001E-2</v>
       </c>
       <c r="J3" s="4">
@@ -2266,7 +2266,7 @@
         <v>64</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>68</v>
@@ -2278,7 +2278,7 @@
         <v>1.338E-2</v>
       </c>
       <c r="I4" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="I4" si="1">1.5*H4</f>
         <v>2.0069999999999998E-2</v>
       </c>
       <c r="J4" s="4">
@@ -2326,20 +2326,20 @@
         <v>64</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>68</v>
       </c>
       <c r="G5" s="4">
-        <v>1450</v>
+        <v>1000</v>
       </c>
       <c r="H5" s="4">
-        <v>1.486E-2</v>
+        <v>1.338E-2</v>
       </c>
       <c r="I5" s="4">
         <f t="shared" si="0"/>
-        <v>2.2290000000000001E-2</v>
+        <v>2.0069999999999998E-2</v>
       </c>
       <c r="J5" s="4">
         <v>55</v>
@@ -2386,20 +2386,20 @@
         <v>64</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>68</v>
       </c>
       <c r="G6" s="4">
-        <v>940</v>
+        <v>1450</v>
       </c>
       <c r="H6" s="4">
-        <v>1.3339999999999999E-2</v>
+        <v>1.486E-2</v>
       </c>
       <c r="I6" s="4">
         <f t="shared" si="0"/>
-        <v>2.001E-2</v>
+        <v>2.2290000000000001E-2</v>
       </c>
       <c r="J6" s="4">
         <v>55</v>
@@ -2432,7 +2432,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>36</v>
       </c>
@@ -2446,20 +2446,20 @@
         <v>64</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>68</v>
       </c>
       <c r="G7" s="4">
-        <v>1020</v>
+        <v>940</v>
       </c>
       <c r="H7" s="4">
-        <v>1.359E-2</v>
+        <v>1.3339999999999999E-2</v>
       </c>
       <c r="I7" s="4">
         <f t="shared" si="0"/>
-        <v>2.0385E-2</v>
+        <v>2.001E-2</v>
       </c>
       <c r="J7" s="4">
         <v>55</v>
@@ -2492,12 +2492,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>36</v>
       </c>
       <c r="B8" s="4">
-        <v>2000</v>
+        <v>1840</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>39</v>
@@ -2506,23 +2506,23 @@
         <v>64</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>68</v>
       </c>
       <c r="G8" s="4">
-        <v>1100</v>
+        <v>1020</v>
       </c>
       <c r="H8" s="4">
-        <v>1.421E-2</v>
+        <v>1.359E-2</v>
       </c>
       <c r="I8" s="4">
         <f t="shared" si="0"/>
-        <v>2.1315000000000001E-2</v>
+        <v>2.0385E-2</v>
       </c>
       <c r="J8" s="4">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="K8" s="4">
         <v>0.26100000000000001</v>
@@ -2566,20 +2566,20 @@
         <v>64</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>68</v>
       </c>
       <c r="G9" s="4">
-        <v>1550</v>
+        <v>1100</v>
       </c>
       <c r="H9" s="4">
-        <v>1.511E-2</v>
+        <v>1.421E-2</v>
       </c>
       <c r="I9" s="4">
-        <f t="shared" si="0"/>
-        <v>2.2665000000000001E-2</v>
+        <f t="shared" ref="I9" si="2">1.5*H9</f>
+        <v>2.1315000000000001E-2</v>
       </c>
       <c r="J9" s="4">
         <v>51</v>
@@ -2626,20 +2626,20 @@
         <v>64</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>68</v>
       </c>
       <c r="G10" s="4">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="H10" s="4">
-        <v>1.354E-2</v>
+        <v>1.421E-2</v>
       </c>
       <c r="I10" s="4">
         <f t="shared" si="0"/>
-        <v>2.0310000000000002E-2</v>
+        <v>2.1315000000000001E-2</v>
       </c>
       <c r="J10" s="4">
         <v>51</v>
@@ -2672,7 +2672,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>36</v>
       </c>
@@ -2686,20 +2686,20 @@
         <v>64</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>68</v>
       </c>
       <c r="G11" s="4">
-        <v>1100</v>
+        <v>1550</v>
       </c>
       <c r="H11" s="4">
-        <v>1.387E-2</v>
+        <v>1.511E-2</v>
       </c>
       <c r="I11" s="4">
         <f t="shared" si="0"/>
-        <v>2.0805000000000001E-2</v>
+        <v>2.2665000000000001E-2</v>
       </c>
       <c r="J11" s="4">
         <v>51</v>
@@ -2734,10 +2734,10 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="B12" s="4">
-        <v>1840</v>
+        <v>2000</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>39</v>
@@ -2745,33 +2745,33 @@
       <c r="D12" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>54</v>
+      <c r="E12" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>68</v>
       </c>
       <c r="G12" s="4">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="H12" s="4">
-        <v>1.772E-2</v>
+        <v>1.354E-2</v>
       </c>
       <c r="I12" s="4">
         <f t="shared" si="0"/>
-        <v>2.6579999999999999E-2</v>
+        <v>2.0310000000000002E-2</v>
       </c>
       <c r="J12" s="4">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="K12" s="4">
-        <v>0.3</v>
+        <v>0.26100000000000001</v>
       </c>
       <c r="L12" s="4">
-        <v>273</v>
+        <v>417</v>
       </c>
       <c r="M12" s="4">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="N12" s="4">
         <v>0.40300000000000002</v>
@@ -2789,12 +2789,12 @@
         <v>0.7</v>
       </c>
       <c r="S12" s="4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="B13" s="4">
         <v>2000</v>
@@ -2805,33 +2805,33 @@
       <c r="D13" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>54</v>
+      <c r="E13" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>68</v>
       </c>
       <c r="G13" s="4">
-        <v>1670</v>
+        <v>1100</v>
       </c>
       <c r="H13" s="4">
-        <v>1.8200000000000001E-2</v>
+        <v>1.387E-2</v>
       </c>
       <c r="I13" s="4">
         <f t="shared" si="0"/>
-        <v>2.7300000000000001E-2</v>
+        <v>2.0805000000000001E-2</v>
       </c>
       <c r="J13" s="4">
         <v>51</v>
       </c>
       <c r="K13" s="4">
-        <v>0.3</v>
+        <v>0.26100000000000001</v>
       </c>
       <c r="L13" s="4">
-        <v>273</v>
+        <v>417</v>
       </c>
       <c r="M13" s="4">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="N13" s="4">
         <v>0.40300000000000002</v>
@@ -2849,12 +2849,12 @@
         <v>0.7</v>
       </c>
       <c r="S13" s="4">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="B14" s="4">
         <v>1840</v>
@@ -2869,26 +2869,26 @@
         <v>54</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G14" s="4">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="H14" s="4">
-        <v>1.299E-2</v>
+        <v>1.772E-2</v>
       </c>
       <c r="I14" s="4">
         <f t="shared" si="0"/>
-        <v>1.9484999999999999E-2</v>
+        <v>2.6579999999999999E-2</v>
       </c>
       <c r="J14" s="4">
         <v>55</v>
       </c>
       <c r="K14" s="4">
-        <v>0.246</v>
+        <v>0.3</v>
       </c>
       <c r="L14" s="4">
-        <v>492</v>
+        <v>273</v>
       </c>
       <c r="M14" s="4">
         <v>55</v>
@@ -2909,12 +2909,12 @@
         <v>0.7</v>
       </c>
       <c r="S14" s="4">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="B15" s="4">
         <v>2000</v>
@@ -2929,26 +2929,26 @@
         <v>54</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G15" s="4">
-        <v>1100</v>
+        <v>1670</v>
       </c>
       <c r="H15" s="4">
-        <v>1.3299999999999999E-2</v>
+        <v>1.8200000000000001E-2</v>
       </c>
       <c r="I15" s="4">
         <f t="shared" si="0"/>
-        <v>1.9949999999999999E-2</v>
+        <v>2.7300000000000001E-2</v>
       </c>
       <c r="J15" s="4">
         <v>51</v>
       </c>
       <c r="K15" s="4">
-        <v>0.246</v>
+        <v>0.3</v>
       </c>
       <c r="L15" s="4">
-        <v>492</v>
+        <v>273</v>
       </c>
       <c r="M15" s="4">
         <v>55</v>
@@ -2969,12 +2969,12 @@
         <v>0.7</v>
       </c>
       <c r="S15" s="4">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B16" s="4">
         <v>1840</v>
@@ -2995,23 +2995,23 @@
         <v>1000</v>
       </c>
       <c r="H16" s="4">
-        <v>1.338E-2</v>
+        <v>1.299E-2</v>
       </c>
       <c r="I16" s="4">
         <f t="shared" si="0"/>
-        <v>2.0069999999999998E-2</v>
+        <v>1.9484999999999999E-2</v>
       </c>
       <c r="J16" s="4">
         <v>55</v>
       </c>
       <c r="K16" s="4">
-        <v>0.26100000000000001</v>
+        <v>0.246</v>
       </c>
       <c r="L16" s="4">
-        <v>417</v>
+        <v>492</v>
       </c>
       <c r="M16" s="4">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="N16" s="4">
         <v>0.40300000000000002</v>
@@ -3029,12 +3029,12 @@
         <v>0.7</v>
       </c>
       <c r="S16" s="4">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B17" s="4">
         <v>2000</v>
@@ -3055,23 +3055,23 @@
         <v>1100</v>
       </c>
       <c r="H17" s="4">
-        <v>1.421E-2</v>
+        <v>1.3299999999999999E-2</v>
       </c>
       <c r="I17" s="4">
         <f t="shared" si="0"/>
-        <v>2.1315000000000001E-2</v>
+        <v>1.9949999999999999E-2</v>
       </c>
       <c r="J17" s="4">
         <v>51</v>
       </c>
       <c r="K17" s="4">
-        <v>0.26100000000000001</v>
+        <v>0.246</v>
       </c>
       <c r="L17" s="4">
-        <v>417</v>
+        <v>492</v>
       </c>
       <c r="M17" s="4">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="N17" s="4">
         <v>0.40300000000000002</v>
@@ -3089,12 +3089,12 @@
         <v>0.7</v>
       </c>
       <c r="S17" s="4">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="B18" s="4">
         <v>1840</v>
@@ -3115,23 +3115,23 @@
         <v>1000</v>
       </c>
       <c r="H18" s="4">
-        <v>1.6E-2</v>
+        <v>1.338E-2</v>
       </c>
       <c r="I18" s="4">
         <f t="shared" si="0"/>
-        <v>2.4E-2</v>
+        <v>2.0069999999999998E-2</v>
       </c>
       <c r="J18" s="4">
         <v>55</v>
       </c>
       <c r="K18" s="4">
-        <v>0.3</v>
+        <v>0.26100000000000001</v>
       </c>
       <c r="L18" s="4">
-        <v>273</v>
+        <v>417</v>
       </c>
       <c r="M18" s="4">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="N18" s="4">
         <v>0.40300000000000002</v>
@@ -3149,12 +3149,12 @@
         <v>0.7</v>
       </c>
       <c r="S18" s="4">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="B19" s="4">
         <v>2000</v>
@@ -3175,23 +3175,23 @@
         <v>1100</v>
       </c>
       <c r="H19" s="4">
-        <v>1.6379999999999999E-2</v>
+        <v>1.421E-2</v>
       </c>
       <c r="I19" s="4">
         <f t="shared" si="0"/>
-        <v>2.4569999999999998E-2</v>
+        <v>2.1315000000000001E-2</v>
       </c>
       <c r="J19" s="4">
         <v>51</v>
       </c>
       <c r="K19" s="4">
-        <v>0.3</v>
+        <v>0.26100000000000001</v>
       </c>
       <c r="L19" s="4">
-        <v>273</v>
+        <v>417</v>
       </c>
       <c r="M19" s="4">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="N19" s="4">
         <v>0.40300000000000002</v>
@@ -3209,18 +3209,18 @@
         <v>0.7</v>
       </c>
       <c r="S19" s="4">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="B20" s="4">
         <v>1840</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>64</v>
@@ -3229,58 +3229,58 @@
         <v>54</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G20" s="4">
-        <v>270</v>
+        <v>1000</v>
       </c>
       <c r="H20" s="4">
-        <v>9.3600000000000003E-3</v>
+        <v>1.6E-2</v>
       </c>
       <c r="I20" s="4">
         <f t="shared" si="0"/>
-        <v>1.404E-2</v>
+        <v>2.4E-2</v>
       </c>
       <c r="J20" s="4">
         <v>55</v>
       </c>
       <c r="K20" s="4">
-        <v>0.82</v>
+        <v>0.3</v>
       </c>
       <c r="L20" s="4">
-        <v>492</v>
+        <v>273</v>
       </c>
       <c r="M20" s="4">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="N20" s="4">
-        <v>0.433</v>
+        <v>0.40300000000000002</v>
       </c>
       <c r="O20" s="4">
-        <v>612</v>
+        <v>518</v>
       </c>
       <c r="P20" s="4">
-        <v>2853</v>
+        <v>3092</v>
       </c>
       <c r="Q20" s="4">
-        <v>25</v>
+        <v>27.6</v>
       </c>
       <c r="R20" s="4">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="S20" s="4">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="B21" s="4">
         <v>2000</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>64</v>
@@ -3289,55 +3289,55 @@
         <v>54</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G21" s="4">
-        <v>295</v>
+        <v>1100</v>
       </c>
       <c r="H21" s="4">
-        <v>9.5700000000000004E-3</v>
+        <v>1.6379999999999999E-2</v>
       </c>
       <c r="I21" s="4">
         <f t="shared" si="0"/>
-        <v>1.4355E-2</v>
+        <v>2.4569999999999998E-2</v>
       </c>
       <c r="J21" s="4">
         <v>51</v>
       </c>
       <c r="K21" s="4">
-        <v>0.82</v>
+        <v>0.3</v>
       </c>
       <c r="L21" s="4">
-        <v>492</v>
+        <v>273</v>
       </c>
       <c r="M21" s="4">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="N21" s="4">
-        <v>0.433</v>
+        <v>0.40300000000000002</v>
       </c>
       <c r="O21" s="4">
-        <v>612</v>
+        <v>518</v>
       </c>
       <c r="P21" s="4">
-        <v>2853</v>
+        <v>3092</v>
       </c>
       <c r="Q21" s="4">
-        <v>25</v>
+        <v>27.6</v>
       </c>
       <c r="R21" s="4">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="S21" s="4">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B22" s="4">
-        <v>1600</v>
+        <v>1840</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>40</v>
@@ -3352,26 +3352,26 @@
         <v>68</v>
       </c>
       <c r="G22" s="4">
-        <v>230</v>
+        <v>270</v>
       </c>
       <c r="H22" s="4">
-        <v>9.6100000000000005E-3</v>
+        <v>9.3600000000000003E-3</v>
       </c>
       <c r="I22" s="4">
         <f t="shared" si="0"/>
-        <v>1.4415000000000001E-2</v>
+        <v>1.404E-2</v>
       </c>
       <c r="J22" s="4">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="K22" s="4">
-        <v>0.87</v>
+        <v>0.82</v>
       </c>
       <c r="L22" s="4">
-        <v>417</v>
+        <v>492</v>
       </c>
       <c r="M22" s="4">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="N22" s="4">
         <v>0.433</v>
@@ -3389,15 +3389,15 @@
         <v>0.8</v>
       </c>
       <c r="S22" s="4">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B23" s="4">
-        <v>1840</v>
+        <v>2000</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>40</v>
@@ -3412,26 +3412,26 @@
         <v>68</v>
       </c>
       <c r="G23" s="4">
-        <v>270</v>
+        <v>295</v>
       </c>
       <c r="H23" s="4">
-        <v>0.01</v>
+        <v>9.5700000000000004E-3</v>
       </c>
       <c r="I23" s="4">
         <f t="shared" si="0"/>
-        <v>1.4999999999999999E-2</v>
+        <v>1.4355E-2</v>
       </c>
       <c r="J23" s="4">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="K23" s="4">
-        <v>0.87</v>
+        <v>0.82</v>
       </c>
       <c r="L23" s="4">
-        <v>417</v>
+        <v>492</v>
       </c>
       <c r="M23" s="4">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="N23" s="4">
         <v>0.433</v>
@@ -3449,7 +3449,7 @@
         <v>0.8</v>
       </c>
       <c r="S23" s="4">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
@@ -3457,7 +3457,7 @@
         <v>36</v>
       </c>
       <c r="B24" s="4">
-        <v>2000</v>
+        <v>1600</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>40</v>
@@ -3472,17 +3472,17 @@
         <v>68</v>
       </c>
       <c r="G24" s="4">
-        <v>295</v>
+        <v>230</v>
       </c>
       <c r="H24" s="4">
-        <v>1.023E-2</v>
+        <v>9.6100000000000005E-3</v>
       </c>
       <c r="I24" s="4">
         <f t="shared" si="0"/>
-        <v>1.5344999999999999E-2</v>
+        <v>1.4415000000000001E-2</v>
       </c>
       <c r="J24" s="4">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="K24" s="4">
         <v>0.87</v>
@@ -3517,13 +3517,13 @@
         <v>36</v>
       </c>
       <c r="B25" s="4">
-        <v>1600</v>
+        <v>1840</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>40</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>54</v>
@@ -3532,20 +3532,20 @@
         <v>68</v>
       </c>
       <c r="G25" s="4">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="H25" s="4">
-        <v>9.0399999999999994E-3</v>
+        <v>0.01</v>
       </c>
       <c r="I25" s="4">
         <f t="shared" si="0"/>
-        <v>1.3559999999999999E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="J25" s="4">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="K25" s="4">
-        <v>0.95699999999999996</v>
+        <v>0.87</v>
       </c>
       <c r="L25" s="4">
         <v>417</v>
@@ -3560,10 +3560,10 @@
         <v>612</v>
       </c>
       <c r="P25" s="4">
-        <v>2561</v>
+        <v>2853</v>
       </c>
       <c r="Q25" s="4">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R25" s="4">
         <v>0.8</v>
@@ -3577,13 +3577,13 @@
         <v>36</v>
       </c>
       <c r="B26" s="4">
-        <v>1840</v>
+        <v>2000</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>40</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>54</v>
@@ -3592,20 +3592,20 @@
         <v>68</v>
       </c>
       <c r="G26" s="4">
-        <v>210</v>
+        <v>295</v>
       </c>
       <c r="H26" s="4">
-        <v>9.3900000000000008E-3</v>
+        <v>1.023E-2</v>
       </c>
       <c r="I26" s="4">
         <f t="shared" si="0"/>
-        <v>1.4085E-2</v>
+        <v>1.5344999999999999E-2</v>
       </c>
       <c r="J26" s="4">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="K26" s="4">
-        <v>0.95699999999999996</v>
+        <v>0.87</v>
       </c>
       <c r="L26" s="4">
         <v>417</v>
@@ -3620,10 +3620,10 @@
         <v>612</v>
       </c>
       <c r="P26" s="4">
-        <v>2561</v>
+        <v>2853</v>
       </c>
       <c r="Q26" s="4">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R26" s="4">
         <v>0.8</v>
@@ -3637,7 +3637,7 @@
         <v>36</v>
       </c>
       <c r="B27" s="4">
-        <v>2000</v>
+        <v>1600</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>40</v>
@@ -3652,17 +3652,17 @@
         <v>68</v>
       </c>
       <c r="G27" s="4">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="H27" s="4">
-        <v>9.6100000000000005E-3</v>
+        <v>9.0399999999999994E-3</v>
       </c>
       <c r="I27" s="4">
         <f t="shared" si="0"/>
-        <v>1.4415000000000001E-2</v>
+        <v>1.3559999999999999E-2</v>
       </c>
       <c r="J27" s="4">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="K27" s="4">
         <v>0.95699999999999996</v>
@@ -3694,16 +3694,16 @@
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="B28" s="4">
-        <v>1600</v>
+        <v>1840</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>40</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>54</v>
@@ -3712,35 +3712,35 @@
         <v>68</v>
       </c>
       <c r="G28" s="4">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="H28" s="4">
-        <v>1.11E-2</v>
+        <v>9.3900000000000008E-3</v>
       </c>
       <c r="I28" s="4">
         <f t="shared" si="0"/>
-        <v>1.6650000000000002E-2</v>
+        <v>1.4085E-2</v>
       </c>
       <c r="J28" s="4">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="K28" s="4">
-        <v>1</v>
+        <v>0.95699999999999996</v>
       </c>
       <c r="L28" s="4">
-        <v>273</v>
+        <v>417</v>
       </c>
       <c r="M28" s="4">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="N28" s="4">
         <v>0.433</v>
       </c>
       <c r="O28" s="4">
-        <v>527</v>
+        <v>612</v>
       </c>
       <c r="P28" s="4">
-        <v>2466</v>
+        <v>2561</v>
       </c>
       <c r="Q28" s="4">
         <v>23</v>
@@ -3749,21 +3749,21 @@
         <v>0.8</v>
       </c>
       <c r="S28" s="4">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="B29" s="4">
-        <v>1840</v>
+        <v>2000</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>40</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>54</v>
@@ -3772,35 +3772,35 @@
         <v>68</v>
       </c>
       <c r="G29" s="4">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="H29" s="4">
-        <v>1.145E-2</v>
+        <v>9.6100000000000005E-3</v>
       </c>
       <c r="I29" s="4">
         <f t="shared" si="0"/>
-        <v>1.7174999999999999E-2</v>
+        <v>1.4415000000000001E-2</v>
       </c>
       <c r="J29" s="4">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="K29" s="4">
-        <v>1</v>
+        <v>0.95699999999999996</v>
       </c>
       <c r="L29" s="4">
-        <v>273</v>
+        <v>417</v>
       </c>
       <c r="M29" s="4">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="N29" s="4">
         <v>0.433</v>
       </c>
       <c r="O29" s="4">
-        <v>527</v>
+        <v>612</v>
       </c>
       <c r="P29" s="4">
-        <v>2466</v>
+        <v>2561</v>
       </c>
       <c r="Q29" s="4">
         <v>23</v>
@@ -3809,7 +3809,7 @@
         <v>0.8</v>
       </c>
       <c r="S29" s="4">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
@@ -3817,7 +3817,7 @@
         <v>63</v>
       </c>
       <c r="B30" s="4">
-        <v>2000</v>
+        <v>1600</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>40</v>
@@ -3832,17 +3832,17 @@
         <v>68</v>
       </c>
       <c r="G30" s="4">
-        <v>290</v>
+        <v>230</v>
       </c>
       <c r="H30" s="4">
-        <v>1.176E-2</v>
+        <v>1.11E-2</v>
       </c>
       <c r="I30" s="4">
         <f t="shared" si="0"/>
-        <v>1.7639999999999999E-2</v>
+        <v>1.6650000000000002E-2</v>
       </c>
       <c r="J30" s="4">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="K30" s="4">
         <v>1</v>
@@ -3877,13 +3877,13 @@
         <v>63</v>
       </c>
       <c r="B31" s="4">
-        <v>1600</v>
+        <v>1840</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>40</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>54</v>
@@ -3892,20 +3892,20 @@
         <v>68</v>
       </c>
       <c r="G31" s="4">
-        <v>180</v>
+        <v>260</v>
       </c>
       <c r="H31" s="4">
-        <v>1.044E-2</v>
+        <v>1.145E-2</v>
       </c>
       <c r="I31" s="4">
         <f t="shared" si="0"/>
-        <v>1.566E-2</v>
+        <v>1.7174999999999999E-2</v>
       </c>
       <c r="J31" s="4">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="K31" s="4">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="L31" s="4">
         <v>273</v>
@@ -3920,7 +3920,7 @@
         <v>527</v>
       </c>
       <c r="P31" s="4">
-        <v>2561</v>
+        <v>2466</v>
       </c>
       <c r="Q31" s="4">
         <v>23</v>
@@ -3937,13 +3937,13 @@
         <v>63</v>
       </c>
       <c r="B32" s="4">
-        <v>1840</v>
+        <v>2000</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>40</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>54</v>
@@ -3952,20 +3952,20 @@
         <v>68</v>
       </c>
       <c r="G32" s="4">
-        <v>210</v>
+        <v>290</v>
       </c>
       <c r="H32" s="4">
-        <v>1.085E-2</v>
+        <v>1.176E-2</v>
       </c>
       <c r="I32" s="4">
         <f t="shared" si="0"/>
-        <v>1.6275000000000001E-2</v>
+        <v>1.7639999999999999E-2</v>
       </c>
       <c r="J32" s="4">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="K32" s="4">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="L32" s="4">
         <v>273</v>
@@ -3980,7 +3980,7 @@
         <v>527</v>
       </c>
       <c r="P32" s="4">
-        <v>2561</v>
+        <v>2466</v>
       </c>
       <c r="Q32" s="4">
         <v>23</v>
@@ -3997,7 +3997,7 @@
         <v>63</v>
       </c>
       <c r="B33" s="4">
-        <v>2000</v>
+        <v>1600</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>40</v>
@@ -4012,17 +4012,17 @@
         <v>68</v>
       </c>
       <c r="G33" s="4">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="H33" s="4">
-        <v>1.11E-2</v>
+        <v>1.044E-2</v>
       </c>
       <c r="I33" s="4">
         <f t="shared" si="0"/>
-        <v>1.6650000000000002E-2</v>
+        <v>1.566E-2</v>
       </c>
       <c r="J33" s="4">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="K33" s="4">
         <v>1.1000000000000001</v>
@@ -4057,13 +4057,13 @@
         <v>63</v>
       </c>
       <c r="B34" s="4">
-        <v>1600</v>
+        <v>1840</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>40</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>54</v>
@@ -4072,20 +4072,20 @@
         <v>68</v>
       </c>
       <c r="G34" s="4">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="H34" s="4">
-        <v>1.044E-2</v>
+        <v>1.085E-2</v>
       </c>
       <c r="I34" s="4">
         <f t="shared" si="0"/>
-        <v>1.566E-2</v>
+        <v>1.6275000000000001E-2</v>
       </c>
       <c r="J34" s="4">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="K34" s="4">
-        <v>1.5</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="L34" s="4">
         <v>273</v>
@@ -4117,13 +4117,13 @@
         <v>63</v>
       </c>
       <c r="B35" s="4">
-        <v>1840</v>
+        <v>2000</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>40</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>54</v>
@@ -4132,20 +4132,20 @@
         <v>68</v>
       </c>
       <c r="G35" s="4">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="H35" s="4">
-        <v>1.085E-2</v>
+        <v>1.11E-2</v>
       </c>
       <c r="I35" s="4">
         <f t="shared" si="0"/>
-        <v>1.6275000000000001E-2</v>
+        <v>1.6650000000000002E-2</v>
       </c>
       <c r="J35" s="4">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="K35" s="4">
-        <v>1.5</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="L35" s="4">
         <v>273</v>
@@ -4177,7 +4177,7 @@
         <v>63</v>
       </c>
       <c r="B36" s="4">
-        <v>2000</v>
+        <v>1600</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>40</v>
@@ -4192,17 +4192,17 @@
         <v>68</v>
       </c>
       <c r="G36" s="4">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="H36" s="4">
-        <v>1.11E-2</v>
+        <v>1.044E-2</v>
       </c>
       <c r="I36" s="4">
         <f t="shared" si="0"/>
-        <v>1.6650000000000002E-2</v>
+        <v>1.566E-2</v>
       </c>
       <c r="J36" s="4">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="K36" s="4">
         <v>1.5</v>
@@ -4229,6 +4229,126 @@
         <v>0.8</v>
       </c>
       <c r="S36" s="4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B37" s="4">
+        <v>1840</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G37" s="4">
+        <v>210</v>
+      </c>
+      <c r="H37" s="4">
+        <v>1.085E-2</v>
+      </c>
+      <c r="I37" s="4">
+        <f t="shared" si="0"/>
+        <v>1.6275000000000001E-2</v>
+      </c>
+      <c r="J37" s="4">
+        <v>55</v>
+      </c>
+      <c r="K37" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="L37" s="4">
+        <v>273</v>
+      </c>
+      <c r="M37" s="4">
+        <v>55</v>
+      </c>
+      <c r="N37" s="4">
+        <v>0.433</v>
+      </c>
+      <c r="O37" s="4">
+        <v>527</v>
+      </c>
+      <c r="P37" s="4">
+        <v>2561</v>
+      </c>
+      <c r="Q37" s="4">
+        <v>23</v>
+      </c>
+      <c r="R37" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="S37" s="4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B38" s="4">
+        <v>2000</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G38" s="4">
+        <v>230</v>
+      </c>
+      <c r="H38" s="4">
+        <v>1.11E-2</v>
+      </c>
+      <c r="I38" s="4">
+        <f t="shared" si="0"/>
+        <v>1.6650000000000002E-2</v>
+      </c>
+      <c r="J38" s="4">
+        <v>51</v>
+      </c>
+      <c r="K38" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="L38" s="4">
+        <v>273</v>
+      </c>
+      <c r="M38" s="4">
+        <v>55</v>
+      </c>
+      <c r="N38" s="4">
+        <v>0.433</v>
+      </c>
+      <c r="O38" s="4">
+        <v>527</v>
+      </c>
+      <c r="P38" s="4">
+        <v>2561</v>
+      </c>
+      <c r="Q38" s="4">
+        <v>23</v>
+      </c>
+      <c r="R38" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="S38" s="4">
         <v>45</v>
       </c>
     </row>

--- a/dannye.xlsx
+++ b/dannye.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\My Computer\Documents\Neiroexpert\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD250BD7-634B-4FBA-BECC-89A246A26A2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3959C72D-24B3-4DC7-9523-70FB0D1FEB88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="line" sheetId="3" r:id="rId1"/>
@@ -671,7 +671,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03B60433-AA79-4942-8211-43192B4F2CAE}">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -2051,8 +2051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{202BBD52-9E91-42CA-A546-3F38FD89AB80}">
   <dimension ref="A1:S38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2158,8 +2158,8 @@
         <v>1.438E-2</v>
       </c>
       <c r="I2" s="4">
-        <f>1.5*H2</f>
-        <v>2.1569999999999999E-2</v>
+        <f>6*H2</f>
+        <v>8.6279999999999996E-2</v>
       </c>
       <c r="J2" s="4">
         <v>55</v>
@@ -2218,8 +2218,8 @@
         <v>1.477E-2</v>
       </c>
       <c r="I3" s="4">
-        <f t="shared" ref="I3:I38" si="0">1.5*H3</f>
-        <v>2.2155000000000001E-2</v>
+        <f t="shared" ref="I3:I38" si="0">6*H3</f>
+        <v>8.8620000000000004E-2</v>
       </c>
       <c r="J3" s="4">
         <v>51</v>
@@ -2278,8 +2278,8 @@
         <v>1.338E-2</v>
       </c>
       <c r="I4" s="4">
-        <f t="shared" ref="I4" si="1">1.5*H4</f>
-        <v>2.0069999999999998E-2</v>
+        <f t="shared" si="0"/>
+        <v>8.027999999999999E-2</v>
       </c>
       <c r="J4" s="4">
         <v>55</v>
@@ -2339,7 +2339,7 @@
       </c>
       <c r="I5" s="4">
         <f t="shared" si="0"/>
-        <v>2.0069999999999998E-2</v>
+        <v>8.027999999999999E-2</v>
       </c>
       <c r="J5" s="4">
         <v>55</v>
@@ -2399,7 +2399,7 @@
       </c>
       <c r="I6" s="4">
         <f t="shared" si="0"/>
-        <v>2.2290000000000001E-2</v>
+        <v>8.9160000000000003E-2</v>
       </c>
       <c r="J6" s="4">
         <v>55</v>
@@ -2459,7 +2459,7 @@
       </c>
       <c r="I7" s="4">
         <f t="shared" si="0"/>
-        <v>2.001E-2</v>
+        <v>8.004E-2</v>
       </c>
       <c r="J7" s="4">
         <v>55</v>
@@ -2519,7 +2519,7 @@
       </c>
       <c r="I8" s="4">
         <f t="shared" si="0"/>
-        <v>2.0385E-2</v>
+        <v>8.1540000000000001E-2</v>
       </c>
       <c r="J8" s="4">
         <v>55</v>
@@ -2578,8 +2578,8 @@
         <v>1.421E-2</v>
       </c>
       <c r="I9" s="4">
-        <f t="shared" ref="I9" si="2">1.5*H9</f>
-        <v>2.1315000000000001E-2</v>
+        <f t="shared" si="0"/>
+        <v>8.5260000000000002E-2</v>
       </c>
       <c r="J9" s="4">
         <v>51</v>
@@ -2639,7 +2639,7 @@
       </c>
       <c r="I10" s="4">
         <f t="shared" si="0"/>
-        <v>2.1315000000000001E-2</v>
+        <v>8.5260000000000002E-2</v>
       </c>
       <c r="J10" s="4">
         <v>51</v>
@@ -2699,7 +2699,7 @@
       </c>
       <c r="I11" s="4">
         <f t="shared" si="0"/>
-        <v>2.2665000000000001E-2</v>
+        <v>9.0660000000000004E-2</v>
       </c>
       <c r="J11" s="4">
         <v>51</v>
@@ -2759,7 +2759,7 @@
       </c>
       <c r="I12" s="4">
         <f t="shared" si="0"/>
-        <v>2.0310000000000002E-2</v>
+        <v>8.1240000000000007E-2</v>
       </c>
       <c r="J12" s="4">
         <v>51</v>
@@ -2819,7 +2819,7 @@
       </c>
       <c r="I13" s="4">
         <f t="shared" si="0"/>
-        <v>2.0805000000000001E-2</v>
+        <v>8.3220000000000002E-2</v>
       </c>
       <c r="J13" s="4">
         <v>51</v>
@@ -2879,7 +2879,7 @@
       </c>
       <c r="I14" s="4">
         <f t="shared" si="0"/>
-        <v>2.6579999999999999E-2</v>
+        <v>0.10632</v>
       </c>
       <c r="J14" s="4">
         <v>55</v>
@@ -2939,7 +2939,7 @@
       </c>
       <c r="I15" s="4">
         <f t="shared" si="0"/>
-        <v>2.7300000000000001E-2</v>
+        <v>0.10920000000000001</v>
       </c>
       <c r="J15" s="4">
         <v>51</v>
@@ -2999,7 +2999,7 @@
       </c>
       <c r="I16" s="4">
         <f t="shared" si="0"/>
-        <v>1.9484999999999999E-2</v>
+        <v>7.7939999999999995E-2</v>
       </c>
       <c r="J16" s="4">
         <v>55</v>
@@ -3059,7 +3059,7 @@
       </c>
       <c r="I17" s="4">
         <f t="shared" si="0"/>
-        <v>1.9949999999999999E-2</v>
+        <v>7.9799999999999996E-2</v>
       </c>
       <c r="J17" s="4">
         <v>51</v>
@@ -3119,7 +3119,7 @@
       </c>
       <c r="I18" s="4">
         <f t="shared" si="0"/>
-        <v>2.0069999999999998E-2</v>
+        <v>8.027999999999999E-2</v>
       </c>
       <c r="J18" s="4">
         <v>55</v>
@@ -3179,7 +3179,7 @@
       </c>
       <c r="I19" s="4">
         <f t="shared" si="0"/>
-        <v>2.1315000000000001E-2</v>
+        <v>8.5260000000000002E-2</v>
       </c>
       <c r="J19" s="4">
         <v>51</v>
@@ -3239,7 +3239,7 @@
       </c>
       <c r="I20" s="4">
         <f t="shared" si="0"/>
-        <v>2.4E-2</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="J20" s="4">
         <v>55</v>
@@ -3299,7 +3299,7 @@
       </c>
       <c r="I21" s="4">
         <f t="shared" si="0"/>
-        <v>2.4569999999999998E-2</v>
+        <v>9.8279999999999992E-2</v>
       </c>
       <c r="J21" s="4">
         <v>51</v>
@@ -3358,8 +3358,8 @@
         <v>9.3600000000000003E-3</v>
       </c>
       <c r="I22" s="4">
-        <f t="shared" si="0"/>
-        <v>1.404E-2</v>
+        <f>2*H22</f>
+        <v>1.8720000000000001E-2</v>
       </c>
       <c r="J22" s="4">
         <v>55</v>
@@ -3418,8 +3418,8 @@
         <v>9.5700000000000004E-3</v>
       </c>
       <c r="I23" s="4">
-        <f t="shared" si="0"/>
-        <v>1.4355E-2</v>
+        <f t="shared" ref="I23:I38" si="1">2*H23</f>
+        <v>1.9140000000000001E-2</v>
       </c>
       <c r="J23" s="4">
         <v>51</v>
@@ -3478,8 +3478,8 @@
         <v>9.6100000000000005E-3</v>
       </c>
       <c r="I24" s="4">
-        <f t="shared" si="0"/>
-        <v>1.4415000000000001E-2</v>
+        <f t="shared" si="1"/>
+        <v>1.9220000000000001E-2</v>
       </c>
       <c r="J24" s="4">
         <v>63</v>
@@ -3538,8 +3538,8 @@
         <v>0.01</v>
       </c>
       <c r="I25" s="4">
-        <f t="shared" si="0"/>
-        <v>1.4999999999999999E-2</v>
+        <f t="shared" si="1"/>
+        <v>0.02</v>
       </c>
       <c r="J25" s="4">
         <v>55</v>
@@ -3598,8 +3598,8 @@
         <v>1.023E-2</v>
       </c>
       <c r="I26" s="4">
-        <f t="shared" si="0"/>
-        <v>1.5344999999999999E-2</v>
+        <f t="shared" si="1"/>
+        <v>2.0459999999999999E-2</v>
       </c>
       <c r="J26" s="4">
         <v>51</v>
@@ -3658,8 +3658,8 @@
         <v>9.0399999999999994E-3</v>
       </c>
       <c r="I27" s="4">
-        <f t="shared" si="0"/>
-        <v>1.3559999999999999E-2</v>
+        <f t="shared" si="1"/>
+        <v>1.8079999999999999E-2</v>
       </c>
       <c r="J27" s="4">
         <v>63</v>
@@ -3718,8 +3718,8 @@
         <v>9.3900000000000008E-3</v>
       </c>
       <c r="I28" s="4">
-        <f t="shared" si="0"/>
-        <v>1.4085E-2</v>
+        <f t="shared" si="1"/>
+        <v>1.8780000000000002E-2</v>
       </c>
       <c r="J28" s="4">
         <v>55</v>
@@ -3778,8 +3778,8 @@
         <v>9.6100000000000005E-3</v>
       </c>
       <c r="I29" s="4">
-        <f t="shared" si="0"/>
-        <v>1.4415000000000001E-2</v>
+        <f t="shared" si="1"/>
+        <v>1.9220000000000001E-2</v>
       </c>
       <c r="J29" s="4">
         <v>51</v>
@@ -3838,8 +3838,8 @@
         <v>1.11E-2</v>
       </c>
       <c r="I30" s="4">
-        <f t="shared" si="0"/>
-        <v>1.6650000000000002E-2</v>
+        <f t="shared" si="1"/>
+        <v>2.2200000000000001E-2</v>
       </c>
       <c r="J30" s="4">
         <v>63</v>
@@ -3898,8 +3898,8 @@
         <v>1.145E-2</v>
       </c>
       <c r="I31" s="4">
-        <f t="shared" si="0"/>
-        <v>1.7174999999999999E-2</v>
+        <f t="shared" si="1"/>
+        <v>2.29E-2</v>
       </c>
       <c r="J31" s="4">
         <v>55</v>
@@ -3958,8 +3958,8 @@
         <v>1.176E-2</v>
       </c>
       <c r="I32" s="4">
-        <f t="shared" si="0"/>
-        <v>1.7639999999999999E-2</v>
+        <f t="shared" si="1"/>
+        <v>2.3519999999999999E-2</v>
       </c>
       <c r="J32" s="4">
         <v>51</v>
@@ -4018,8 +4018,8 @@
         <v>1.044E-2</v>
       </c>
       <c r="I33" s="4">
-        <f t="shared" si="0"/>
-        <v>1.566E-2</v>
+        <f t="shared" si="1"/>
+        <v>2.0879999999999999E-2</v>
       </c>
       <c r="J33" s="4">
         <v>63</v>
@@ -4078,8 +4078,8 @@
         <v>1.085E-2</v>
       </c>
       <c r="I34" s="4">
-        <f t="shared" si="0"/>
-        <v>1.6275000000000001E-2</v>
+        <f t="shared" si="1"/>
+        <v>2.1700000000000001E-2</v>
       </c>
       <c r="J34" s="4">
         <v>55</v>
@@ -4138,8 +4138,8 @@
         <v>1.11E-2</v>
       </c>
       <c r="I35" s="4">
-        <f t="shared" si="0"/>
-        <v>1.6650000000000002E-2</v>
+        <f t="shared" si="1"/>
+        <v>2.2200000000000001E-2</v>
       </c>
       <c r="J35" s="4">
         <v>51</v>
@@ -4198,8 +4198,8 @@
         <v>1.044E-2</v>
       </c>
       <c r="I36" s="4">
-        <f t="shared" si="0"/>
-        <v>1.566E-2</v>
+        <f t="shared" si="1"/>
+        <v>2.0879999999999999E-2</v>
       </c>
       <c r="J36" s="4">
         <v>63</v>
@@ -4258,8 +4258,8 @@
         <v>1.085E-2</v>
       </c>
       <c r="I37" s="4">
-        <f t="shared" si="0"/>
-        <v>1.6275000000000001E-2</v>
+        <f t="shared" si="1"/>
+        <v>2.1700000000000001E-2</v>
       </c>
       <c r="J37" s="4">
         <v>55</v>
@@ -4318,8 +4318,8 @@
         <v>1.11E-2</v>
       </c>
       <c r="I38" s="4">
-        <f t="shared" si="0"/>
-        <v>1.6650000000000002E-2</v>
+        <f t="shared" si="1"/>
+        <v>2.2200000000000001E-2</v>
       </c>
       <c r="J38" s="4">
         <v>51</v>

--- a/dannye.xlsx
+++ b/dannye.xlsx
@@ -8,22 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\My Computer\Documents\Neiroexpert\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3959C72D-24B3-4DC7-9523-70FB0D1FEB88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8540DB2C-819D-4C09-B2D0-811953CC5081}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="line" sheetId="3" r:id="rId1"/>
     <sheet name="trains" sheetId="2" r:id="rId2"/>
     <sheet name="vsp_constr" sheetId="4" r:id="rId3"/>
     <sheet name="pod_sos" sheetId="1" r:id="rId4"/>
+    <sheet name="damage_koeff" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="95">
   <si>
     <t>vag_type</t>
   </si>
@@ -242,13 +243,82 @@
   </si>
   <si>
     <t>wv_cm3</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>rail_dr</t>
+  </si>
+  <si>
+    <t>rail_odr</t>
+  </si>
+  <si>
+    <t>shkol_dop</t>
+  </si>
+  <si>
+    <t>shkol_pred</t>
+  </si>
+  <si>
+    <t>shkol_otkaz</t>
+  </si>
+  <si>
+    <t>prof_dop</t>
+  </si>
+  <si>
+    <t>prof_pred</t>
+  </si>
+  <si>
+    <t>prof_otkaz</t>
+  </si>
+  <si>
+    <t>plan_dop</t>
+  </si>
+  <si>
+    <t>plan_pred</t>
+  </si>
+  <si>
+    <t>plan_otkaz</t>
+  </si>
+  <si>
+    <t>opzp</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>price_rub</t>
+  </si>
+  <si>
+    <t>degre_1</t>
+  </si>
+  <si>
+    <t>degre_2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -277,6 +347,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -286,7 +363,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -309,11 +386,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -331,6 +432,33 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2051,7 +2179,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{202BBD52-9E91-42CA-A546-3F38FD89AB80}">
   <dimension ref="A1:S38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
@@ -2218,7 +2346,7 @@
         <v>1.477E-2</v>
       </c>
       <c r="I3" s="4">
-        <f t="shared" ref="I3:I38" si="0">6*H3</f>
+        <f t="shared" ref="I3:I21" si="0">6*H3</f>
         <v>8.8620000000000004E-2</v>
       </c>
       <c r="J3" s="4">
@@ -4715,4 +4843,588 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AD62583-6E07-48CD-8D57-5E9D50FCF1E6}">
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" customWidth="1"/>
+    <col min="6" max="6" width="17.109375" customWidth="1"/>
+    <col min="7" max="7" width="22.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="9">
+        <v>6.9817342500000001E-64</v>
+      </c>
+      <c r="C2" s="9">
+        <v>-1.1789942850000001E-50</v>
+      </c>
+      <c r="D2" s="9">
+        <v>9.4987869750000007E-38</v>
+      </c>
+      <c r="E2" s="9">
+        <v>-2.9263005675E-25</v>
+      </c>
+      <c r="F2" s="9">
+        <v>5.5627391925000004E-13</v>
+      </c>
+      <c r="G2" s="9">
+        <v>0</v>
+      </c>
+      <c r="H2" s="10">
+        <v>51.049875</v>
+      </c>
+      <c r="I2" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="J2" s="15">
+        <v>4</v>
+      </c>
+      <c r="K2" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="9">
+        <v>7.7574825000000001E-65</v>
+      </c>
+      <c r="C3" s="9">
+        <v>-1.3099936500000001E-51</v>
+      </c>
+      <c r="D3" s="9">
+        <v>1.0554207750000001E-38</v>
+      </c>
+      <c r="E3" s="9">
+        <v>-3.2514450750000001E-26</v>
+      </c>
+      <c r="F3" s="9">
+        <v>6.1808213250000008E-14</v>
+      </c>
+      <c r="G3" s="9">
+        <v>0</v>
+      </c>
+      <c r="H3" s="10">
+        <v>51.049875</v>
+      </c>
+      <c r="I3" s="11">
+        <v>0.02</v>
+      </c>
+      <c r="J3" s="15">
+        <v>4</v>
+      </c>
+      <c r="K3" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="9">
+        <v>-2.1976900000000003E-86</v>
+      </c>
+      <c r="C4" s="9">
+        <v>3.7493500000000002E-68</v>
+      </c>
+      <c r="D4" s="9">
+        <v>-2.1781100000000001E-50</v>
+      </c>
+      <c r="E4" s="9">
+        <v>4.859140000000001E-33</v>
+      </c>
+      <c r="F4" s="9">
+        <v>-1.2725900000000003E-16</v>
+      </c>
+      <c r="G4" s="9">
+        <v>0</v>
+      </c>
+      <c r="H4" s="10">
+        <v>2.75604</v>
+      </c>
+      <c r="I4" s="11">
+        <v>1E-3</v>
+      </c>
+      <c r="J4" s="15">
+        <v>4</v>
+      </c>
+      <c r="K4" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="9">
+        <v>-1.248E-86</v>
+      </c>
+      <c r="C5" s="9">
+        <v>2.1293999999999999E-68</v>
+      </c>
+      <c r="D5" s="9">
+        <v>-1.2371E-50</v>
+      </c>
+      <c r="E5" s="9">
+        <v>2.7604000000000001E-33</v>
+      </c>
+      <c r="F5" s="9">
+        <v>-7.2329000000000004E-17</v>
+      </c>
+      <c r="G5" s="9">
+        <v>0</v>
+      </c>
+      <c r="H5" s="10">
+        <v>5.43</v>
+      </c>
+      <c r="I5" s="11">
+        <v>1E-3</v>
+      </c>
+      <c r="J5" s="15">
+        <v>4</v>
+      </c>
+      <c r="K5" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="9">
+        <v>0</v>
+      </c>
+      <c r="C6" s="9">
+        <v>-2.7621000000000003E-70</v>
+      </c>
+      <c r="D6" s="9">
+        <v>2.3254000000000001E-52</v>
+      </c>
+      <c r="E6" s="9">
+        <v>4.3879000000000004E-35</v>
+      </c>
+      <c r="F6" s="9">
+        <v>7.1379000000000011E-18</v>
+      </c>
+      <c r="G6" s="9">
+        <v>0</v>
+      </c>
+      <c r="H6" s="10">
+        <v>0.57494531250000003</v>
+      </c>
+      <c r="I6" s="11">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J6" s="15">
+        <v>4</v>
+      </c>
+      <c r="K6" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" s="9">
+        <v>0</v>
+      </c>
+      <c r="C7" s="9">
+        <v>-9.2059000000000023E-71</v>
+      </c>
+      <c r="D7" s="9">
+        <v>7.7517000000000004E-53</v>
+      </c>
+      <c r="E7" s="9">
+        <v>1.463E-35</v>
+      </c>
+      <c r="F7" s="9">
+        <v>2.3793000000000001E-18</v>
+      </c>
+      <c r="G7" s="9">
+        <v>0</v>
+      </c>
+      <c r="H7" s="10">
+        <v>0.76659374999999996</v>
+      </c>
+      <c r="I7" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="J7" s="15">
+        <v>4</v>
+      </c>
+      <c r="K7" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" s="9">
+        <v>0</v>
+      </c>
+      <c r="C8" s="9">
+        <v>-2.3012E-71</v>
+      </c>
+      <c r="D8" s="9">
+        <v>1.9382E-53</v>
+      </c>
+      <c r="E8" s="9">
+        <v>3.6564000000000003E-36</v>
+      </c>
+      <c r="F8" s="9">
+        <v>5.9488000000000005E-19</v>
+      </c>
+      <c r="G8" s="9">
+        <v>0</v>
+      </c>
+      <c r="H8" s="10">
+        <v>0.95824218750000001</v>
+      </c>
+      <c r="I8" s="11">
+        <v>0.03</v>
+      </c>
+      <c r="J8" s="15">
+        <v>4</v>
+      </c>
+      <c r="K8" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B9" s="9">
+        <v>-4E-79</v>
+      </c>
+      <c r="C9" s="9">
+        <v>1E-62</v>
+      </c>
+      <c r="D9" s="9">
+        <v>-1E-46</v>
+      </c>
+      <c r="E9" s="9">
+        <v>2.0000000000000002E-31</v>
+      </c>
+      <c r="F9" s="9">
+        <v>2.9999999999999998E-15</v>
+      </c>
+      <c r="G9" s="9">
+        <v>0</v>
+      </c>
+      <c r="H9" s="10">
+        <v>7.4215124999999986</v>
+      </c>
+      <c r="I9" s="11">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="J9" s="15">
+        <v>4</v>
+      </c>
+      <c r="K9" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10" s="9">
+        <v>-1.2278E-79</v>
+      </c>
+      <c r="C10" s="9">
+        <v>4.6375000000000002E-63</v>
+      </c>
+      <c r="D10" s="9">
+        <v>-4.6063000000000004E-47</v>
+      </c>
+      <c r="E10" s="9">
+        <v>5.1679999999999995E-32</v>
+      </c>
+      <c r="F10" s="9">
+        <v>1.1414E-15</v>
+      </c>
+      <c r="G10" s="9">
+        <v>0</v>
+      </c>
+      <c r="H10" s="10">
+        <v>9.8953499999999988</v>
+      </c>
+      <c r="I10" s="11">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J10" s="15">
+        <v>4</v>
+      </c>
+      <c r="K10" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11" s="9">
+        <v>-4.6040000000000002E-80</v>
+      </c>
+      <c r="C11" s="9">
+        <v>1.7390000000000001E-63</v>
+      </c>
+      <c r="D11" s="9">
+        <v>-1.727E-47</v>
+      </c>
+      <c r="E11" s="9">
+        <v>1.9380000000000001E-32</v>
+      </c>
+      <c r="F11" s="9">
+        <v>4.28E-16</v>
+      </c>
+      <c r="G11" s="9">
+        <v>0</v>
+      </c>
+      <c r="H11" s="10">
+        <v>12.369187499999999</v>
+      </c>
+      <c r="I11" s="11">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="J11" s="15">
+        <v>4</v>
+      </c>
+      <c r="K11" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" s="9">
+        <v>0</v>
+      </c>
+      <c r="C12" s="9">
+        <v>-2.6739999999999998E-30</v>
+      </c>
+      <c r="D12" s="9">
+        <v>7.8929999999999993E-21</v>
+      </c>
+      <c r="E12" s="9">
+        <v>-1.342E-13</v>
+      </c>
+      <c r="F12" s="9">
+        <v>8.2939999999999995E-7</v>
+      </c>
+      <c r="G12" s="9">
+        <v>0</v>
+      </c>
+      <c r="H12" s="10">
+        <v>0.85218749999999999</v>
+      </c>
+      <c r="I12" s="11">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="J12" s="15">
+        <v>4</v>
+      </c>
+      <c r="K12" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>88</v>
+      </c>
+      <c r="B13" s="9">
+        <v>0</v>
+      </c>
+      <c r="C13" s="9">
+        <v>-8.9129999999999997E-31</v>
+      </c>
+      <c r="D13" s="9">
+        <v>2.6309999999999999E-21</v>
+      </c>
+      <c r="E13" s="9">
+        <v>-4.4730000000000002E-14</v>
+      </c>
+      <c r="F13" s="9">
+        <v>2.7650000000000002E-7</v>
+      </c>
+      <c r="G13" s="9">
+        <v>0</v>
+      </c>
+      <c r="H13" s="10">
+        <v>1.13625</v>
+      </c>
+      <c r="I13" s="11">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J13" s="15">
+        <v>4</v>
+      </c>
+      <c r="K13" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>89</v>
+      </c>
+      <c r="B14" s="9">
+        <v>0</v>
+      </c>
+      <c r="C14" s="9">
+        <v>-8.9129999999999997E-31</v>
+      </c>
+      <c r="D14" s="9">
+        <v>2.6309999999999999E-21</v>
+      </c>
+      <c r="E14" s="9">
+        <v>-4.4730000000000002E-14</v>
+      </c>
+      <c r="F14" s="9">
+        <v>2.7650000000000002E-7</v>
+      </c>
+      <c r="G14" s="9">
+        <v>0</v>
+      </c>
+      <c r="H14" s="10">
+        <v>1.4203125000000001</v>
+      </c>
+      <c r="I14" s="11">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="J14" s="15">
+        <v>4</v>
+      </c>
+      <c r="K14" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="9">
+        <v>1.5542999999999999E-59</v>
+      </c>
+      <c r="C15" s="9">
+        <v>-9.9424999999999991E-47</v>
+      </c>
+      <c r="D15" s="9">
+        <v>2.3518E-34</v>
+      </c>
+      <c r="E15" s="9">
+        <v>-2.5819999999999998E-22</v>
+      </c>
+      <c r="F15" s="9">
+        <v>1.3875000000000001E-10</v>
+      </c>
+      <c r="G15" s="9">
+        <v>0</v>
+      </c>
+      <c r="H15" s="10">
+        <v>1.5951562500000001</v>
+      </c>
+      <c r="I15" s="11">
+        <v>0.05</v>
+      </c>
+      <c r="J15" s="15">
+        <v>250</v>
+      </c>
+      <c r="K15" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>90</v>
+      </c>
+      <c r="B16" s="9">
+        <v>0</v>
+      </c>
+      <c r="C16" s="9">
+        <v>0</v>
+      </c>
+      <c r="D16" s="9">
+        <v>0</v>
+      </c>
+      <c r="E16" s="9">
+        <v>0</v>
+      </c>
+      <c r="F16" s="9">
+        <v>0</v>
+      </c>
+      <c r="G16" s="9">
+        <v>0</v>
+      </c>
+      <c r="H16" s="10">
+        <v>0</v>
+      </c>
+      <c r="I16" s="11">
+        <v>0</v>
+      </c>
+      <c r="J16" s="15">
+        <v>80</v>
+      </c>
+      <c r="K16" s="15">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/dannye.xlsx
+++ b/dannye.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\My Computer\Documents\Neiroexpert\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8540DB2C-819D-4C09-B2D0-811953CC5081}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F70554A-A595-4E0B-967E-5B0E263F7616}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="line" sheetId="3" r:id="rId1"/>
@@ -18,13 +18,14 @@
     <sheet name="vsp_constr" sheetId="4" r:id="rId3"/>
     <sheet name="pod_sos" sheetId="1" r:id="rId4"/>
     <sheet name="damage_koeff" sheetId="5" r:id="rId5"/>
+    <sheet name="criteria" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="117">
   <si>
     <t>vag_type</t>
   </si>
@@ -309,21 +310,96 @@
   </si>
   <si>
     <t>degre_2</t>
+  </si>
+  <si>
+    <t>repair_name</t>
+  </si>
+  <si>
+    <t>repear_price</t>
+  </si>
+  <si>
+    <t>max_year</t>
+  </si>
+  <si>
+    <t>tonnag</t>
+  </si>
+  <si>
+    <t>kap_new</t>
+  </si>
+  <si>
+    <t>kap_old</t>
+  </si>
+  <si>
+    <t>sred</t>
+  </si>
+  <si>
+    <t>rail_sred</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rail </t>
+  </si>
+  <si>
+    <t>vipr</t>
+  </si>
+  <si>
+    <t>numb_2st</t>
+  </si>
+  <si>
+    <t>zagrzn</t>
+  </si>
+  <si>
+    <t>tie_viplesk</t>
+  </si>
+  <si>
+    <t>fast_damg</t>
+  </si>
+  <si>
+    <t>tie_damg</t>
+  </si>
+  <si>
+    <t>podklad_damg</t>
+  </si>
+  <si>
+    <t>indx_predotkz</t>
+  </si>
+  <si>
+    <t>chast_otkaz</t>
+  </si>
+  <si>
+    <t>koeff_rasxod</t>
+  </si>
+  <si>
+    <t>dolya_ammortiz</t>
+  </si>
+  <si>
+    <t>podyom</t>
+  </si>
+  <si>
+    <t>gruz_napr</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -353,6 +429,21 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -411,27 +502,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -450,7 +544,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -459,9 +553,31 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный 2" xfId="3" xr:uid="{92E92B75-9154-45AC-8249-C5DC6726560C}"/>
+    <cellStyle name="Обычный 3" xfId="1" xr:uid="{1667528A-CBE8-415A-AA13-8E045EBC77A1}"/>
+    <cellStyle name="Финансовый 2" xfId="2" xr:uid="{F90A58F8-8A86-405C-8BCA-B83CB8B6ACBA}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -797,10 +913,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03B60433-AA79-4942-8211-43192B4F2CAE}">
-  <dimension ref="A1:P21"/>
+  <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -809,7 +925,7 @@
     <col min="16" max="16" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>46</v>
       </c>
@@ -858,8 +974,11 @@
       <c r="P1" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q1" s="22" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -908,8 +1027,11 @@
       <c r="P2" s="3">
         <v>1520</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q2" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -958,8 +1080,11 @@
       <c r="P3" s="3">
         <v>1525</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q3" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -1008,8 +1133,11 @@
       <c r="P4" s="3">
         <v>1515</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q4" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -1058,8 +1186,11 @@
       <c r="P5" s="3">
         <v>1530</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q5" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>1</v>
       </c>
@@ -1108,8 +1239,11 @@
       <c r="P6" s="3">
         <v>1520</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q6" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>1</v>
       </c>
@@ -1158,8 +1292,11 @@
       <c r="P7" s="3">
         <v>1520</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q7" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>1</v>
       </c>
@@ -1208,8 +1345,11 @@
       <c r="P8" s="3">
         <v>1520</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q8" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>1</v>
       </c>
@@ -1258,8 +1398,11 @@
       <c r="P9" s="3">
         <v>1520</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q9" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -1308,8 +1451,11 @@
       <c r="P10" s="3">
         <v>1520</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q10" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>1</v>
       </c>
@@ -1358,8 +1504,11 @@
       <c r="P11" s="3">
         <v>1520</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q11" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>1</v>
       </c>
@@ -1408,8 +1557,11 @@
       <c r="P12" s="3">
         <v>1540</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q12" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>1</v>
       </c>
@@ -1458,8 +1610,11 @@
       <c r="P13" s="3">
         <v>1520</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q13" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>1</v>
       </c>
@@ -1508,8 +1663,11 @@
       <c r="P14" s="3">
         <v>1520</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q14" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>1</v>
       </c>
@@ -1558,8 +1716,11 @@
       <c r="P15" s="3">
         <v>1515</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q15" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>1</v>
       </c>
@@ -1608,8 +1769,11 @@
       <c r="P16" s="3">
         <v>1530</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q16" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>1</v>
       </c>
@@ -1658,8 +1822,11 @@
       <c r="P17" s="3">
         <v>1520</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q17" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>1</v>
       </c>
@@ -1708,8 +1875,11 @@
       <c r="P18" s="3">
         <v>1520</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q18" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>1</v>
       </c>
@@ -1758,8 +1928,11 @@
       <c r="P19" s="3">
         <v>1520</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q19" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>1</v>
       </c>
@@ -1808,8 +1981,11 @@
       <c r="P20" s="3">
         <v>1520</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q20" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>1</v>
       </c>
@@ -1857,6 +2033,9 @@
       </c>
       <c r="P21" s="3">
         <v>1520</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -4481,7 +4660,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4490,7 +4669,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
@@ -4849,7 +5028,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AD62583-6E07-48CD-8D57-5E9D50FCF1E6}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
@@ -5427,4 +5606,307 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94C6814F-EBA7-47EB-B97A-2953CD6AE36B}">
+  <dimension ref="A1:O8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="12.5546875" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" customWidth="1"/>
+    <col min="10" max="10" width="9.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" customWidth="1"/>
+    <col min="12" max="12" width="14.44140625" customWidth="1"/>
+    <col min="13" max="13" width="11.33203125" customWidth="1"/>
+    <col min="14" max="14" width="11.6640625" customWidth="1"/>
+    <col min="15" max="15" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="M1" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="N1" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="O1" s="17" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="16">
+        <v>21828.741999999998</v>
+      </c>
+      <c r="C2" s="17">
+        <v>40</v>
+      </c>
+      <c r="D2" s="16">
+        <v>1400</v>
+      </c>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18">
+        <v>30</v>
+      </c>
+      <c r="G2" s="18">
+        <v>4</v>
+      </c>
+      <c r="H2" s="18">
+        <v>4</v>
+      </c>
+      <c r="I2" s="18">
+        <v>15</v>
+      </c>
+      <c r="J2" s="18">
+        <v>15</v>
+      </c>
+      <c r="K2" s="19"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3" s="20">
+        <v>11641.718999999999</v>
+      </c>
+      <c r="C3" s="17"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18">
+        <v>30</v>
+      </c>
+      <c r="G3" s="18">
+        <v>4</v>
+      </c>
+      <c r="H3" s="18">
+        <v>4</v>
+      </c>
+      <c r="I3" s="18">
+        <v>15</v>
+      </c>
+      <c r="J3" s="18">
+        <v>15</v>
+      </c>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4" s="18">
+        <v>3553.8</v>
+      </c>
+      <c r="C4" s="17"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18">
+        <v>30</v>
+      </c>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18">
+        <v>3</v>
+      </c>
+      <c r="I4" s="18">
+        <v>10</v>
+      </c>
+      <c r="J4" s="18">
+        <v>12</v>
+      </c>
+      <c r="K4" s="19"/>
+      <c r="L4" s="18">
+        <v>0.18</v>
+      </c>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18">
+        <v>0.15</v>
+      </c>
+      <c r="O4" s="18"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="B5" s="18">
+        <v>10727.423000000001</v>
+      </c>
+      <c r="C5" s="17"/>
+      <c r="D5" s="18">
+        <v>700</v>
+      </c>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18">
+        <v>30</v>
+      </c>
+      <c r="G5" s="18">
+        <v>4</v>
+      </c>
+      <c r="H5" s="18">
+        <v>3</v>
+      </c>
+      <c r="I5" s="18">
+        <v>10</v>
+      </c>
+      <c r="J5" s="18">
+        <v>12</v>
+      </c>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="B6" s="18">
+        <v>2548.12</v>
+      </c>
+      <c r="C6" s="17"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18">
+        <v>30</v>
+      </c>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18">
+        <v>3</v>
+      </c>
+      <c r="I6" s="18">
+        <v>13</v>
+      </c>
+      <c r="J6" s="18">
+        <v>15</v>
+      </c>
+      <c r="K6" s="18">
+        <v>35</v>
+      </c>
+      <c r="L6" s="18">
+        <v>0.18</v>
+      </c>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18">
+        <v>0.15</v>
+      </c>
+      <c r="O6" s="18"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="B7" s="18">
+        <v>5681.22</v>
+      </c>
+      <c r="C7" s="17"/>
+      <c r="D7" s="18">
+        <v>700</v>
+      </c>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18">
+        <v>4</v>
+      </c>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18">
+        <v>0</v>
+      </c>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="B8" s="16">
+        <v>925.95600000000002</v>
+      </c>
+      <c r="C8" s="17"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18">
+        <v>15</v>
+      </c>
+      <c r="F8" s="18">
+        <v>30</v>
+      </c>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18">
+        <v>3</v>
+      </c>
+      <c r="I8" s="18">
+        <v>10</v>
+      </c>
+      <c r="J8" s="18">
+        <v>10</v>
+      </c>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18">
+        <v>0.18</v>
+      </c>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>